--- a/data/fake_data.xlsx
+++ b/data/fake_data.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>-10</v>
@@ -537,7 +537,7 @@
         <v>1.4660655061715</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>-10</v>
@@ -575,7 +575,7 @@
         <v>2.93087030728981</v>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-10</v>
@@ -613,7 +613,7 @@
         <v>4.393154782412393</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>-10</v>
@@ -651,7 +651,7 @@
         <v>5.851661477885759</v>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>-10</v>
@@ -689,7 +689,7 @@
         <v>7.305136188660169</v>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>-10</v>
@@ -727,7 +727,7 @@
         <v>8.752329036810764</v>
       </c>
       <c r="C8" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-10</v>
@@ -765,7 +765,7 @@
         <v>10.19199554633771</v>
       </c>
       <c r="C9" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>-10</v>
@@ -803,7 +803,7 @@
         <v>11.62289771332113</v>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>-10</v>
@@ -841,7 +841,7 @@
         <v>13.04380507051043</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>-10</v>
@@ -879,7 +879,7 @@
         <v>14.45349574543282</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>-10</v>
@@ -917,7 +917,7 @@
         <v>15.85075751111083</v>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>-10</v>
@@ -955,7 +955,7 @@
         <v>17.23438882848552</v>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>-10</v>
@@ -993,7 +993,7 @@
         <v>18.60319987964888</v>
       </c>
       <c r="C15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>-10</v>
@@ -1031,7 +1031,7 @@
         <v>19.95601359099691</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>-10</v>
@@ -1069,7 +1069,7 @@
         <v>21.29166664542355</v>
       </c>
       <c r="C17" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>-10</v>
@@ -1107,7 +1107,7 @@
         <v>22.60901048268511</v>
       </c>
       <c r="C18" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>-10</v>
@@ -1145,7 +1145,7 @@
         <v>23.90691228707492</v>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>-10</v>
@@ -1183,7 +1183,7 @@
         <v>25.18425596155879</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>-10</v>
@@ -1221,7 +1221,7 @@
         <v>26.43994308753382</v>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>-10</v>
@@ -1259,7 +1259,7 @@
         <v>27.67289386938494</v>
       </c>
       <c r="C22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>-10</v>
@@ -1297,7 +1297,7 @@
         <v>28.88204806302724</v>
       </c>
       <c r="C23" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>-10</v>
@@ -1335,7 +1335,7 @@
         <v>30.06636588763539</v>
       </c>
       <c r="C24" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>-10</v>
@@ -1373,7 +1373,7 @@
         <v>31.22482891977619</v>
       </c>
       <c r="C25" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>-10</v>
@@ -1411,7 +1411,7 @@
         <v>32.35644096917547</v>
       </c>
       <c r="C26" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>-10</v>
@@ -1449,7 +1449,7 @@
         <v>33.4602289353661</v>
       </c>
       <c r="C27" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>-10</v>
@@ -1487,7 +1487,7 @@
         <v>34.53524364448046</v>
       </c>
       <c r="C28" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>-10</v>
@@ -1525,7 +1525,7 @@
         <v>35.58056066546803</v>
       </c>
       <c r="C29" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>-10</v>
@@ -1563,7 +1563,7 @@
         <v>36.59528110503585</v>
       </c>
       <c r="C30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>-10</v>
@@ -1601,7 +1601,7 @@
         <v>37.57853238062852</v>
       </c>
       <c r="C31" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>-10</v>
@@ -1639,7 +1639,7 @@
         <v>38.529468970783</v>
       </c>
       <c r="C32" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>-10</v>
@@ -1677,7 +1677,7 @@
         <v>39.44727314221287</v>
       </c>
       <c r="C33" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>-10</v>
@@ -1715,7 +1715,7 @@
         <v>40.33115565299688</v>
       </c>
       <c r="C34" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>-10</v>
@@ -1753,7 +1753,7 @@
         <v>41.18035643126713</v>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>-10</v>
@@ -1791,7 +1791,7 @@
         <v>41.99414522881311</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>-10</v>
@@ -1829,7 +1829,7 @@
         <v>42.77182224903981</v>
       </c>
       <c r="C37" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>-10</v>
@@ -1867,7 +1867,7 @@
         <v>43.51271874873962</v>
       </c>
       <c r="C38" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>-10</v>
@@ -1905,7 +1905,7 @@
         <v>44.21619761316079</v>
       </c>
       <c r="C39" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>-10</v>
@@ -1943,7 +1943,7 @@
         <v>44.88165390387764</v>
       </c>
       <c r="C40" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>-10</v>
@@ -1981,7 +1981,7 @@
         <v>45.50851537899182</v>
       </c>
       <c r="C41" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>-10</v>
@@ -2019,7 +2019,7 @@
         <v>46.09624298521683</v>
       </c>
       <c r="C42" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>-10</v>
@@ -2057,7 +2057,7 @@
         <v>46.64433132142293</v>
       </c>
       <c r="C43" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>-10</v>
@@ -2095,7 +2095,7 @@
         <v>47.15230907324381</v>
       </c>
       <c r="C44" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>-10</v>
@@ -2133,7 +2133,7 @@
         <v>47.61973941837109</v>
       </c>
       <c r="C45" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>-10</v>
@@ -2171,7 +2171,7 @@
         <v>48.04622040218838</v>
       </c>
       <c r="C46" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>-10</v>
@@ -2209,7 +2209,7 @@
         <v>48.43138528342178</v>
       </c>
       <c r="C47" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>-10</v>
@@ -2247,7 +2247,7 @@
         <v>48.77490284950945</v>
       </c>
       <c r="C48" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>-10</v>
@@ -2285,7 +2285,7 @@
         <v>49.07647770141938</v>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>-10</v>
@@ -2323,7 +2323,7 @@
         <v>49.33585050767004</v>
       </c>
       <c r="C50" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>-10</v>
@@ -2361,7 +2361,7 @@
         <v>49.55279822733581</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>-10</v>
@@ -2399,7 +2399,7 @@
         <v>49.72713430184528</v>
       </c>
       <c r="C52" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>-10</v>
@@ -2437,7 +2437,7 @@
         <v>49.85870881540739</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>-10</v>
@@ -2475,7 +2475,7 @@
         <v>49.94740862392767</v>
       </c>
       <c r="C54" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>-10</v>
@@ -2513,7 +2513,7 @@
         <v>49.99315745230358</v>
       </c>
       <c r="C55" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>-10</v>
@@ -2551,7 +2551,7 @@
         <v>49.99591596001531</v>
       </c>
       <c r="C56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>-10</v>
@@ -2589,7 +2589,7 @@
         <v>49.95568177495559</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>-10</v>
@@ -2627,7 +2627,7 @@
         <v>49.87248949546959</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>-10</v>
@@ -2665,7 +2665,7 @@
         <v>49.74641066060295</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>-10</v>
@@ -2703,7 +2703,7 @@
         <v>49.57755368858359</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>-10</v>
@@ -2741,7 +2741,7 @@
         <v>49.36606378359032</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>-10</v>
@@ -2779,7 +2779,7 @@
         <v>49.11212281088822</v>
       </c>
       <c r="C62" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>-10</v>
@@ -2817,7 +2817,7 @@
         <v>48.81594914043836</v>
       </c>
       <c r="C63" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>-10</v>
@@ -2855,7 +2855,7 @@
         <v>48.47779745911618</v>
       </c>
       <c r="C64" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>-10</v>
@@ -2893,7 +2893,7 @@
         <v>48.09795855170012</v>
       </c>
       <c r="C65" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>-10</v>
@@ -2931,7 +2931,7 @@
         <v>47.67675905081879</v>
       </c>
       <c r="C66" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>-10</v>
@@ -2969,7 +2969,7 @@
         <v>47.21456115607165</v>
       </c>
       <c r="C67" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>-10</v>
@@ -3007,7 +3007,7 @@
         <v>46.71176232256494</v>
       </c>
       <c r="C68" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>-10</v>
@@ -3045,7 +3045,7 @@
         <v>46.16879491913038</v>
       </c>
       <c r="C69" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>-10</v>
@@ -3083,7 +3083,7 @@
         <v>45.58612585652084</v>
       </c>
       <c r="C70" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>-10</v>
@@ -3121,7 +3121,7 @@
         <v>44.96425618590251</v>
       </c>
       <c r="C71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>-10</v>
@@ -3159,7 +3159,7 @@
         <v>44.30372066798891</v>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>-10</v>
@@ -3197,7 +3197,7 @@
         <v>43.6050873131873</v>
       </c>
       <c r="C73" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>-10</v>
@@ -3235,7 +3235,7 @@
         <v>42.86895689315288</v>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>-10</v>
@@ -3273,7 +3273,7 @@
         <v>42.09596242417064</v>
       </c>
       <c r="C75" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>-10</v>
@@ -3311,7 +3311,7 @@
         <v>41.2867686228096</v>
       </c>
       <c r="C76" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>-10</v>
@@ -3349,7 +3349,7 @@
         <v>40.44207133431681</v>
       </c>
       <c r="C77" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>-10</v>
@@ -3387,7 +3387,7 @@
         <v>39.56259693424341</v>
       </c>
       <c r="C78" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>-10</v>
@@ -3425,7 +3425,7 @@
         <v>38.64910170381669</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>-10</v>
@@ -3463,7 +3463,7 @@
         <v>37.70237117959571</v>
       </c>
       <c r="C80" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>-10</v>
@@ -3501,7 +3501,7 @@
         <v>36.72321947796945</v>
       </c>
       <c r="C81" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>-10</v>
@@ -3539,7 +3539,7 @@
         <v>35.71248859507853</v>
       </c>
       <c r="C82" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>-10</v>
@@ -3577,7 +3577,7 @@
         <v>34.67104768276239</v>
       </c>
       <c r="C83" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>-10</v>
@@ -3615,7 +3615,7 @@
         <v>33.59979230115479</v>
       </c>
       <c r="C84" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>-10</v>
@@ -3653,7 +3653,7 @@
         <v>32.49964364856996</v>
       </c>
       <c r="C85" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>-10</v>
@@ -3691,7 +3691,7 @@
         <v>31.37154776934202</v>
       </c>
       <c r="C86" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>-10</v>
@@ -3729,7 +3729,7 @@
         <v>30.21647474029867</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>-10</v>
@@ -3767,7 +3767,7 @@
         <v>29.03541783656875</v>
       </c>
       <c r="C88" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>-10</v>
@@ -3805,7 +3805,7 @@
         <v>27.829392677441</v>
       </c>
       <c r="C89" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>-10</v>
@@ -3843,7 +3843,7 @@
         <v>26.59943635300857</v>
       </c>
       <c r="C90" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>-10</v>
@@ -3881,7 +3881,7 @@
         <v>25.34660653235033</v>
       </c>
       <c r="C91" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>-10</v>
@@ -3919,7 +3919,7 @@
         <v>24.07198055401562</v>
       </c>
       <c r="C92" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>-10</v>
@@ -3957,7 +3957,7 @@
         <v>22.77665449959497</v>
       </c>
       <c r="C93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>-10</v>
@@ -3995,7 +3995,7 @@
         <v>21.46174225117308</v>
       </c>
       <c r="C94" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>-10</v>
@@ -4033,7 +4033,7 @@
         <v>20.12837453347481</v>
       </c>
       <c r="C95" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>-10</v>
@@ -4071,7 +4071,7 @@
         <v>18.77769794152773</v>
       </c>
       <c r="C96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>-10</v>
@@ -4109,7 +4109,7 @@
         <v>17.41087395467741</v>
       </c>
       <c r="C97" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>-10</v>
@@ -4147,7 +4147,7 @@
         <v>16.0290779378034</v>
       </c>
       <c r="C98" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>-10</v>
@@ -4185,7 +4185,7 @@
         <v>14.63349813059459</v>
       </c>
       <c r="C99" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>-10</v>
@@ -4223,7 +4223,7 @@
         <v>13.22533462575328</v>
       </c>
       <c r="C100" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>-10</v>
@@ -4261,7 +4261,7 @@
         <v>11.8057983370066</v>
       </c>
       <c r="C101" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>-10</v>
@@ -4299,7 +4299,7 @@
         <v>10.37610995781257</v>
       </c>
       <c r="C102" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>-10</v>
@@ -4337,7 +4337,7 @@
         <v>8.937498911656384</v>
       </c>
       <c r="C103" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>-10</v>
@@ -4375,7 +4375,7 @@
         <v>7.491202294839562</v>
       </c>
       <c r="C104" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>-10</v>
@@ -4413,7 +4413,7 @@
         <v>6.038463812671012</v>
       </c>
       <c r="C105" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>-10</v>
@@ -4451,7 +4451,7 @@
         <v>4.580532709974873</v>
       </c>
       <c r="C106" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>-10</v>
@@ -4489,7 +4489,7 @@
         <v>3.118662696834789</v>
       </c>
       <c r="C107" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>-10</v>
@@ -4527,7 +4527,7 @@
         <v>1.654110870498403</v>
       </c>
       <c r="C108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>-10</v>
@@ -4565,7 +4565,7 @@
         <v>0.1881366343691425</v>
       </c>
       <c r="C109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>-10</v>
@@ -4603,7 +4603,7 @@
         <v>-1.27799938498511</v>
       </c>
       <c r="C110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>-10</v>
@@ -4641,7 +4641,7 @@
         <v>-2.743036421875182</v>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>-10</v>
@@ -4679,7 +4679,7 @@
         <v>-4.205714655653399</v>
       </c>
       <c r="C112" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>-10</v>
@@ -4717,7 +4717,7 @@
         <v>-5.664776294063715</v>
       </c>
       <c r="C113" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>-10</v>
@@ -4755,7 +4755,7 @@
         <v>-7.118966654847587</v>
       </c>
       <c r="C114" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>-10</v>
@@ -4793,7 +4793,7 @@
         <v>-8.567035244675473</v>
       </c>
       <c r="C115" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>-10</v>
@@ -4831,7 +4831,7 @@
         <v>-10.00773683447618</v>
       </c>
       <c r="C116" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>-10</v>
@@ -4869,7 +4869,7 @@
         <v>-11.43983253023933</v>
       </c>
       <c r="C117" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>-10</v>
@@ -4907,7 +4907,7 @@
         <v>-12.86209083837021</v>
       </c>
       <c r="C118" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>-10</v>
@@ -4945,7 +4945,7 @@
         <v>-14.27328872468075</v>
       </c>
       <c r="C119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>-10</v>
@@ -4983,7 +4983,7 @@
         <v>-15.67221266610608</v>
       </c>
       <c r="C120" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>-10</v>
@@ -5021,7 +5021,7 @@
         <v>-17.05765969424231</v>
       </c>
       <c r="C121" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>-10</v>
@@ -5059,7 +5059,7 @@
         <v>-18.42843842980801</v>
       </c>
       <c r="C122" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>-10</v>
@@ -5097,7 +5097,7 @@
         <v>-19.78337010713989</v>
       </c>
       <c r="C123" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>-10</v>
@@ -5135,7 +5135,7 @@
         <v>-21.12128958784195</v>
       </c>
       <c r="C124" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>-10</v>
@@ -5173,7 +5173,7 @@
         <v>-22.44104636271594</v>
       </c>
       <c r="C125" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>-10</v>
@@ -5211,7 +5211,7 @@
         <v>-23.74150554111197</v>
       </c>
       <c r="C126" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>-10</v>
@@ -5249,7 +5249,7 @@
         <v>-25.02154882684837</v>
       </c>
       <c r="C127" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>-10</v>
@@ -5287,7 +5287,7 @@
         <v>-26.28007547986142</v>
       </c>
       <c r="C128" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>-10</v>
@@ -5325,7 +5325,7 @@
         <v>-27.51600326275837</v>
       </c>
       <c r="C129" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>-10</v>
@@ -5363,7 +5363,7 @@
         <v>-28.72826937145939</v>
       </c>
       <c r="C130" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>-10</v>
@@ -5401,7 +5401,7 @@
         <v>-29.91583134912837</v>
       </c>
       <c r="C131" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>-10</v>
@@ -5439,7 +5439,7 @@
         <v>-31.07766798260677</v>
       </c>
       <c r="C132" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>-10</v>
@@ -5477,7 +5477,7 @@
         <v>-32.21278018057932</v>
       </c>
       <c r="C133" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>-10</v>
@@ -5515,7 +5515,7 @@
         <v>-33.32019183271678</v>
       </c>
       <c r="C134" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>-10</v>
@@ -5553,7 +5553,7 @@
         <v>-34.39895064905672</v>
       </c>
       <c r="C135" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>-10</v>
@@ -5591,7 +5591,7 @@
         <v>-35.44812897890056</v>
       </c>
       <c r="C136" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>-10</v>
@@ -5629,7 +5629,7 @@
         <v>-36.46682460852283</v>
       </c>
       <c r="C137" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>-10</v>
@@ -5667,7 +5667,7 @@
         <v>-37.45416153700643</v>
       </c>
       <c r="C138" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>-10</v>
@@ -5705,7 +5705,7 @@
         <v>-38.40929072953693</v>
       </c>
       <c r="C139" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>-10</v>
@@ -5743,7 +5743,7 @@
         <v>-39.33139084750816</v>
       </c>
       <c r="C140" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>-10</v>
@@ -5781,7 +5781,7 @@
         <v>-40.21966895481089</v>
       </c>
       <c r="C141" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>-10</v>
@@ -5819,7 +5819,7 @@
         <v>-41.07336119969786</v>
       </c>
       <c r="C142" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>-10</v>
@@ -5857,7 +5857,7 @@
         <v>-41.89173347163823</v>
       </c>
       <c r="C143" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>-10</v>
@@ -5895,7 +5895,7 @@
         <v>-42.67408203259688</v>
       </c>
       <c r="C144" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>-10</v>
@@ -5933,7 +5933,7 @@
         <v>-43.41973412219579</v>
       </c>
       <c r="C145" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>-10</v>
@@ -5971,7 +5971,7 @@
         <v>-44.12804853623684</v>
       </c>
       <c r="C146" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>-10</v>
@@ -6009,7 +6009,7 @@
         <v>-44.7984161780888</v>
       </c>
       <c r="C147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>-10</v>
@@ -6047,7 +6047,7 @@
         <v>-45.43026058246404</v>
       </c>
       <c r="C148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>-10</v>
@@ -6085,7 +6085,7 @@
         <v>-46.02303841113518</v>
       </c>
       <c r="C149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>-10</v>
@@ -6123,7 +6123,7 @@
         <v>-46.57623992016451</v>
       </c>
       <c r="C150" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>-10</v>
@@ -6161,7 +6161,7 @@
         <v>-47.08938939824519</v>
       </c>
       <c r="C151" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>-10</v>
@@ -6199,7 +6199,7 @@
         <v>-47.56204557577684</v>
       </c>
       <c r="C152" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>-10</v>
@@ -6237,7 +6237,7 @@
         <v>-47.99380200432387</v>
       </c>
       <c r="C153" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>-10</v>
@@ -6275,7 +6275,7 @@
         <v>-48.38428740613032</v>
       </c>
       <c r="C154" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>-10</v>
@@ -6313,7 +6313,7 @@
         <v>-48.73316599339056</v>
       </c>
       <c r="C155" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>-10</v>
@@ -6351,7 +6351,7 @@
         <v>-49.04013775700125</v>
       </c>
       <c r="C156" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>-10</v>
@@ -6389,7 +6389,7 @@
         <v>-49.30493872454649</v>
       </c>
       <c r="C157" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>-10</v>
@@ -6427,7 +6427,7 @@
         <v>-49.52734118729396</v>
       </c>
       <c r="C158" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>-10</v>
@@ -6465,7 +6465,7 @@
         <v>-49.70715389600724</v>
       </c>
       <c r="C159" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>-10</v>
@@ -6503,7 +6503,7 @@
         <v>-49.84422222540556</v>
       </c>
       <c r="C160" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>-10</v>
@@ -6541,7 +6541,7 @@
         <v>-49.93842830712985</v>
       </c>
       <c r="C161" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>-10</v>
@@ -6579,7 +6579,7 @@
         <v>-49.98969113110056</v>
       </c>
       <c r="C162" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>-10</v>
@@ -6617,7 +6617,7 @@
         <v>-49.9979666151802</v>
       </c>
       <c r="C163" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>-10</v>
@@ -6655,7 +6655,7 @@
         <v>-49.96324764308061</v>
       </c>
       <c r="C164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>-10</v>
@@ -6693,7 +6693,7 @@
         <v>-49.88556407048245</v>
       </c>
       <c r="C165" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>-10</v>
@@ -6731,7 +6731,7 @@
         <v>-49.76498269936156</v>
       </c>
       <c r="C166" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>-10</v>
@@ -6769,7 +6769,7 @@
         <v>-49.60160722054434</v>
       </c>
       <c r="C167" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>-10</v>
@@ -6807,7 +6807,7 @@
         <v>-49.3955781245415</v>
       </c>
       <c r="C168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>-10</v>
@@ -6845,7 +6845,7 @@
         <v>-49.14707258073692</v>
       </c>
       <c r="C169" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>-10</v>
@@ -6883,7 +6883,7 @@
         <v>-48.85630428503538</v>
       </c>
       <c r="C170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>-10</v>
@@ -6921,7 +6921,7 @@
         <v>-48.52352327610034</v>
       </c>
       <c r="C171" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
         <v>-10</v>
@@ -6959,7 +6959,7 @@
         <v>-48.14901572033964</v>
       </c>
       <c r="C172" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>-10</v>
@@ -6997,7 +6997,7 @@
         <v>-47.73310366582413</v>
       </c>
       <c r="C173" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
         <v>-10</v>
@@ -7035,7 +7035,7 @@
         <v>-47.27614476535079</v>
       </c>
       <c r="C174" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>-10</v>
@@ -7073,7 +7073,7 @@
         <v>-46.7785319688884</v>
       </c>
       <c r="C175" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>-10</v>
@@ -7111,7 +7111,7 @@
         <v>-46.24069318567051</v>
       </c>
       <c r="C176" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>-10</v>
@@ -7149,7 +7149,7 @@
         <v>-45.66309091622586</v>
       </c>
       <c r="C177" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
         <v>-10</v>
@@ -7187,7 +7187,7 @@
         <v>-45.0462218546631</v>
       </c>
       <c r="C178" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>-10</v>
@@ -7225,7 +7225,7 @@
         <v>-44.39061646155159</v>
       </c>
       <c r="C179" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>-10</v>
@@ -7263,7 +7263,7 @@
         <v>-43.69683850776547</v>
       </c>
       <c r="C180" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>-10</v>
@@ -7301,7 +7301,7 @@
         <v>-42.96548458968358</v>
       </c>
       <c r="C181" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>-10</v>
@@ -7339,7 +7339,7 @@
         <v>-42.19718361616186</v>
       </c>
       <c r="C182" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>-10</v>
@@ -7377,7 +7377,7 @@
         <v>-41.39259626771942</v>
       </c>
       <c r="C183" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>-10</v>
@@ -7415,7 +7415,7 @@
         <v>-40.55241442840349</v>
       </c>
       <c r="C184" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>-10</v>
@@ -7453,7 +7453,7 @@
         <v>-39.67736059082165</v>
       </c>
       <c r="C185" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>-10</v>
@@ -7491,7 +7491,7 @@
         <v>-38.76818723485301</v>
       </c>
       <c r="C186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
         <v>-10</v>
@@ -7529,7 +7529,7 @@
         <v>-37.82567618057263</v>
       </c>
       <c r="C187" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>-10</v>
@@ -7567,7 +7567,7 @@
         <v>-36.85063791594564</v>
       </c>
       <c r="C188" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>-10</v>
@@ -7605,7 +7605,7 @@
         <v>-35.84391089986904</v>
       </c>
       <c r="C189" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>-10</v>
@@ -7643,7 +7643,7 @@
         <v>-34.80636084116078</v>
       </c>
       <c r="C190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>-10</v>
@@ -7681,7 +7681,7 @@
         <v>-33.73887995411581</v>
       </c>
       <c r="C191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>-10</v>
@@ -7719,7 +7719,7 @@
         <v>-32.64238619126954</v>
       </c>
       <c r="C192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
         <v>-10</v>
@@ -7757,7 +7757,7 @@
         <v>-31.51782245402837</v>
       </c>
       <c r="C193" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>-10</v>
@@ -7795,7 +7795,7 @@
         <v>-30.36615578184597</v>
       </c>
       <c r="C194" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>-10</v>
@@ -7833,7 +7833,7 @@
         <v>-29.18837652064285</v>
       </c>
       <c r="C195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
         <v>-10</v>
@@ -7871,7 +7871,7 @@
         <v>-27.98549747118397</v>
       </c>
       <c r="C196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>-10</v>
@@ -7909,7 +7909,7 @@
         <v>-26.75855301814699</v>
       </c>
       <c r="C197" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>-10</v>
@@ -7947,7 +7947,7 @@
         <v>-25.50859824062995</v>
       </c>
       <c r="C198" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>-10</v>
@@ -7985,7 +7985,7 @@
         <v>-24.23670800486336</v>
       </c>
       <c r="C199" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>-10</v>
@@ -8023,7 +8023,7 @@
         <v>-22.94397603990678</v>
       </c>
       <c r="C200" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
         <v>-10</v>
@@ -8061,7 +8061,7 @@
         <v>-21.63151399712487</v>
       </c>
       <c r="C201" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>-10</v>
@@ -8099,7 +8099,7 @@
         <v>-20.30045049425165</v>
       </c>
       <c r="C202" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>-10</v>
@@ -8137,7 +8137,7 @@
         <v>-18.95193014486481</v>
       </c>
       <c r="C203" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>-10</v>
@@ -8175,7 +8175,7 @@
         <v>-17.58711257410503</v>
       </c>
       <c r="C204" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>-10</v>
@@ -8213,7 +8213,7 @@
         <v>-16.20717142148628</v>
       </c>
       <c r="C205" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>-10</v>
@@ -8251,7 +8251,7 @@
         <v>-14.81329333165499</v>
       </c>
       <c r="C206" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
         <v>-10</v>
@@ -8289,7 +8289,7 @@
         <v>-13.4066769339657</v>
       </c>
       <c r="C207" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>-10</v>
@@ -8327,7 +8327,7 @@
         <v>-11.98853181175082</v>
       </c>
       <c r="C208" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>-10</v>
@@ -8365,7 +8365,7 @@
         <v>-10.56007746217074</v>
       </c>
       <c r="C209" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>-10</v>
@@ -8403,7 +8403,7 @@
         <v>-9.12254224753887</v>
       </c>
       <c r="C210" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>-10</v>
@@ -8441,7 +8441,7 @@
         <v>-7.677162339023269</v>
       </c>
       <c r="C211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>-10</v>
@@ -8479,7 +8479,7 @@
         <v>-6.225180653633291</v>
       </c>
       <c r="C212" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>-10</v>
@@ -8517,7 +8517,7 @@
         <v>-4.76784578540529</v>
       </c>
       <c r="C213" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>-10</v>
@@ -8555,7 +8555,7 @@
         <v>-3.306410931706527</v>
       </c>
       <c r="C214" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>-10</v>
@@ -8593,7 +8593,7 @@
         <v>-1.842132815580555</v>
       </c>
       <c r="C215" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>-10</v>
@@ -8631,7 +8631,7 @@
         <v>-0.376270605060798</v>
       </c>
       <c r="C216" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>-10</v>
@@ -8669,7 +8669,7 @@
         <v>1.089915169618385</v>
       </c>
       <c r="C217" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>-10</v>
@@ -8707,7 +8707,7 @@
         <v>2.555163699982016</v>
       </c>
       <c r="C218" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>-10</v>
@@ -8745,7 +8745,7 @@
         <v>4.018214983514087</v>
       </c>
       <c r="C219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>-10</v>
@@ -8783,7 +8783,7 @@
         <v>5.477810907164084</v>
       </c>
       <c r="C220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>-10</v>
@@ -8821,7 +8821,7 @@
         <v>6.932696329228709</v>
       </c>
       <c r="C221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>-10</v>
@@ -8859,7 +8859,7 @@
         <v>8.381620158678476</v>
       </c>
       <c r="C222" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
         <v>-10</v>
@@ -8897,7 +8897,7 @@
         <v>9.823336431001037</v>
       </c>
       <c r="C223" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
         <v>-10</v>
@@ -8935,7 +8935,7 @@
         <v>11.25660537963607</v>
       </c>
       <c r="C224" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>-10</v>
@@ -8973,7 +8973,7 @@
         <v>12.68019450208044</v>
       </c>
       <c r="C225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>-10</v>
@@ -9011,7 +9011,7 @@
         <v>14.09287961974678</v>
       </c>
       <c r="C226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
         <v>-10</v>
@@ -9049,7 +9049,7 @@
         <v>15.49344593066416</v>
       </c>
       <c r="C227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>-10</v>
@@ -9087,7 +9087,7 @@
         <v>16.88068905411557</v>
       </c>
       <c r="C228" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
         <v>-10</v>
@@ -9125,7 +9125,7 @@
         <v>18.25341606631394</v>
       </c>
       <c r="C229" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>-10</v>
@@ -9163,7 +9163,7 @@
         <v>19.61044652622599</v>
       </c>
       <c r="C230" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>-10</v>
@@ -9201,7 +9201,7 @@
         <v>20.95061349066199</v>
       </c>
       <c r="C231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
         <v>-10</v>
@@ -9239,7 +9239,7 @@
         <v>22.27276451775828</v>
       </c>
       <c r="C232" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>-10</v>
@@ -9277,7 +9277,7 @@
         <v>23.5757626579898</v>
       </c>
       <c r="C233" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>-10</v>
@@ -9315,7 +9315,7 @@
         <v>24.85848743186039</v>
       </c>
       <c r="C234" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
         <v>-10</v>
@@ -9353,7 +9353,7 @@
         <v>26.11983579343012</v>
       </c>
       <c r="C235" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>-10</v>
@@ -9391,7 +9391,7 @@
         <v>27.35872307885105</v>
       </c>
       <c r="C236" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>-10</v>
@@ -9429,7 +9429,7 @@
         <v>28.57408393909579</v>
       </c>
       <c r="C237" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>-10</v>
@@ -9467,7 +9467,7 @@
         <v>29.76487325607685</v>
       </c>
       <c r="C238" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>-10</v>
@@ -9505,7 +9505,7 @@
         <v>30.93006704136883</v>
       </c>
       <c r="C239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
         <v>-10</v>
@@ -9543,7 +9543,7 @@
         <v>32.06866331676073</v>
       </c>
       <c r="C240" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
         <v>-10</v>
@@ -9581,7 +9581,7 @@
         <v>33.1796829758812</v>
       </c>
       <c r="C241" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>-10</v>
@@ -9619,7 +9619,7 @@
         <v>34.26217062615569</v>
       </c>
       <c r="C242" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
         <v>-10</v>
@@ -9657,7 +9657,7 @@
         <v>35.31519541037142</v>
       </c>
       <c r="C243" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>-10</v>
@@ -9695,7 +9695,7 @@
         <v>36.33785180714416</v>
       </c>
       <c r="C244" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
         <v>-10</v>
@@ -9733,7 +9733,7 @@
         <v>37.32926040959769</v>
       </c>
       <c r="C245" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
         <v>-10</v>
@@ -9771,7 +9771,7 @@
         <v>38.28856868158706</v>
       </c>
       <c r="C246" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
         <v>-10</v>
@@ -9809,7 +9809,7 @@
         <v>39.21495169081493</v>
       </c>
       <c r="C247" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
         <v>-10</v>
@@ -9847,7 +9847,7 @@
         <v>40.10761281821072</v>
       </c>
       <c r="C248" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
         <v>-10</v>
@@ -9885,7 +9885,7 @@
         <v>40.96578444296257</v>
       </c>
       <c r="C249" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
         <v>-10</v>
@@ -9923,7 +9923,7 @@
         <v>41.78872860261295</v>
       </c>
       <c r="C250" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>-10</v>
@@ -9961,7 +9961,7 @@
         <v>42.57573762765038</v>
       </c>
       <c r="C251" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
         <v>-10</v>
@@ -9999,7 +9999,7 @@
         <v>43.32613475005145</v>
       </c>
       <c r="C252" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
         <v>-10</v>
@@ -10037,7 +10037,7 @@
         <v>44.03927468525003</v>
       </c>
       <c r="C253" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
         <v>-10</v>
@@ -10075,7 +10075,7 @@
         <v>44.71454418703292</v>
       </c>
       <c r="C254" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>-10</v>
@@ -10113,7 +10113,7 @@
         <v>45.35136257488512</v>
       </c>
       <c r="C255" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
         <v>-10</v>
@@ -10151,7 +10151,7 @@
         <v>45.94918223333093</v>
       </c>
       <c r="C256" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
         <v>-10</v>
@@ -10189,7 +10189,7 @@
         <v>46.50748908284179</v>
       </c>
       <c r="C257" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>-10</v>
@@ -10227,7 +10227,7 @@
         <v>47.02580302190556</v>
       </c>
       <c r="C258" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
         <v>-10</v>
@@ -10265,7 +10265,7 @@
         <v>47.50367833987739</v>
       </c>
       <c r="C259" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
         <v>-10</v>
@@ -10303,7 +10303,7 @@
         <v>47.9407041002571</v>
       </c>
       <c r="C260" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>-10</v>
@@ -10341,7 +10341,7 @@
         <v>48.33650449406331</v>
       </c>
       <c r="C261" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>-10</v>
@@ -10379,7 +10379,7 @@
         <v>48.69073916300072</v>
       </c>
       <c r="C262" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>-10</v>
@@ -10417,7 +10417,7 @@
         <v>49.00310349214229</v>
       </c>
       <c r="C263" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
         <v>-10</v>
@@ -10455,7 +10455,7 @@
         <v>49.2733288718751</v>
       </c>
       <c r="C264" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
         <v>-10</v>
@@ -10493,7 +10493,7 @@
         <v>49.50118292888408</v>
       </c>
       <c r="C265" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
         <v>-10</v>
@@ -10531,7 +10531,7 @@
         <v>49.68646972597555</v>
       </c>
       <c r="C266" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
         <v>-10</v>
@@ -10569,7 +10569,7 @@
         <v>49.82902993056824</v>
       </c>
       <c r="C267" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>-10</v>
@@ -10607,7 +10607,7 @@
         <v>49.92874095170729</v>
       </c>
       <c r="C268" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>-10</v>
@@ -10645,7 +10645,7 @@
         <v>49.9855170454831</v>
       </c>
       <c r="C269" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>-10</v>
@@ -10683,7 +10683,7 @@
         <v>49.99930938876464</v>
       </c>
       <c r="C270" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
         <v>-10</v>
@@ -10721,7 +10721,7 @@
         <v>49.9701061211836</v>
       </c>
       <c r="C271" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
         <v>-10</v>
@@ -10759,7 +10759,7 @@
         <v>49.89793235533341</v>
       </c>
       <c r="C272" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>-10</v>
@@ -10797,7 +10797,7 @@
         <v>49.78285015517434</v>
       </c>
       <c r="C273" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
         <v>-10</v>
@@ -10835,7 +10835,7 @@
         <v>49.62495848266315</v>
       </c>
       <c r="C274" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
         <v>-10</v>
@@ -10873,7 +10873,7 @@
         <v>49.42439311265344</v>
       </c>
       <c r="C275" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
         <v>-10</v>
@@ -10911,7 +10911,7 @@
         <v>49.18132651613941</v>
       </c>
       <c r="C276" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
         <v>-10</v>
@@ -10949,7 +10949,7 @@
         <v>48.89596771194402</v>
       </c>
       <c r="C277" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>-10</v>
@@ -10987,7 +10987,7 @@
         <v>48.56856208697866</v>
       </c>
       <c r="C278" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
         <v>-10</v>
@@ -11025,7 +11025,7 @@
         <v>48.19939118522896</v>
       </c>
       <c r="C279" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>-10</v>
@@ -11063,7 +11063,7 @@
         <v>47.78877246564842</v>
       </c>
       <c r="C280" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
         <v>-10</v>
@@ -11101,7 +11101,7 @@
         <v>47.33705902916775</v>
       </c>
       <c r="C281" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
         <v>-10</v>
@@ -11139,7 +11139,7 @@
         <v>46.84463931505487</v>
       </c>
       <c r="C282" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
         <v>-10</v>
@@ -11177,7 +11177,7 @@
         <v>46.31193676688667</v>
       </c>
       <c r="C283" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
         <v>-10</v>
@@ -11215,7 +11215,7 @@
         <v>45.73940946841964</v>
       </c>
       <c r="C284" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D284" t="n">
         <v>-10</v>
@@ -11253,7 +11253,7 @@
         <v>45.12754974967261</v>
       </c>
       <c r="C285" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D285" t="n">
         <v>-10</v>
@@ -11291,7 +11291,7 @@
         <v>44.47688376356032</v>
       </c>
       <c r="C286" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
         <v>-10</v>
@@ -11329,7 +11329,7 @@
         <v>43.78797103344183</v>
       </c>
       <c r="C287" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>-10</v>
@@ -11367,7 +11367,7 @@
         <v>43.06140397197294</v>
       </c>
       <c r="C288" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
         <v>-10</v>
@@ -11405,7 +11405,7 @@
         <v>42.29780737167624</v>
       </c>
       <c r="C289" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
         <v>-10</v>
@@ -11443,7 +11443,7 @@
         <v>41.49783786766694</v>
       </c>
       <c r="C290" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
         <v>-10</v>
@@ -11481,7 +11481,7 @@
         <v>40.66218337299649</v>
       </c>
       <c r="C291" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D291" t="n">
         <v>-10</v>
@@ -11519,7 +11519,7 @@
         <v>39.79156248709993</v>
       </c>
       <c r="C292" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>-10</v>
@@ -11557,7 +11557,7 @@
         <v>38.88672387785429</v>
       </c>
       <c r="C293" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
         <v>-10</v>
@@ -11595,7 +11595,7 @@
         <v>37.94844563778149</v>
       </c>
       <c r="C294" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D294" t="n">
         <v>-10</v>
@@ -11633,7 +11633,7 @@
         <v>36.97753461494772</v>
       </c>
       <c r="C295" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
         <v>-10</v>
@@ -11671,7 +11671,7 @@
         <v>35.97482571913535</v>
       </c>
       <c r="C296" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D296" t="n">
         <v>-10</v>
@@ -11709,7 +11709,7 @@
         <v>34.94118120388386</v>
       </c>
       <c r="C297" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
         <v>-10</v>
@@ -11747,7 +11747,7 @@
         <v>33.8774899250173</v>
       </c>
       <c r="C298" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
         <v>-10</v>
@@ -11785,7 +11785,7 @@
         <v>32.7846665762957</v>
       </c>
       <c r="C299" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
         <v>-10</v>
@@ -11823,7 +11823,7 @@
         <v>31.66365090284789</v>
       </c>
       <c r="C300" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
         <v>-10</v>
@@ -11861,7 +11861,7 @@
         <v>30.51540689306204</v>
       </c>
       <c r="C301" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
         <v>-10</v>
@@ -11899,7 +11899,7 @@
         <v>29.34092194962876</v>
       </c>
       <c r="C302" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
         <v>-10</v>
@@ -11937,7 +11937,7 @@
         <v>28.1412060404498</v>
       </c>
       <c r="C303" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
         <v>-10</v>
@@ -11975,7 +11975,7 @@
         <v>26.91729083014227</v>
       </c>
       <c r="C304" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
         <v>-10</v>
@@ -12013,7 +12013,7 @@
         <v>25.67022879288541</v>
       </c>
       <c r="C305" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
         <v>-10</v>
@@ -12051,7 +12051,7 @@
         <v>24.40109230737266</v>
       </c>
       <c r="C306" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
         <v>-10</v>
@@ -12089,7 +12089,7 @@
         <v>23.1109727346474</v>
       </c>
       <c r="C307" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
         <v>-10</v>
@@ -12127,7 +12127,7 @@
         <v>21.80097947961529</v>
       </c>
       <c r="C308" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
         <v>-10</v>
@@ -12165,7 +12165,7 @@
         <v>20.47223903704023</v>
       </c>
       <c r="C309" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
         <v>-10</v>
@@ -12203,7 +12203,7 @@
         <v>19.12589402284442</v>
       </c>
       <c r="C310" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
         <v>-10</v>
@@ -12241,7 +12241,7 @@
         <v>17.76310219154538</v>
       </c>
       <c r="C311" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
         <v>-10</v>
@@ -12279,7 +12279,7 @@
         <v>16.38503544067491</v>
       </c>
       <c r="C312" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
         <v>-10</v>
@@ -12317,7 +12317,7 @@
         <v>14.99287880303622</v>
       </c>
       <c r="C313" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
         <v>-10</v>
@@ -12355,7 +12355,7 @@
         <v>13.58782942766564</v>
       </c>
       <c r="C314" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
         <v>-10</v>
@@ -12393,7 +12393,7 @@
         <v>12.1710955503753</v>
       </c>
       <c r="C315" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
         <v>-10</v>
@@ -12431,7 +12431,7 @@
         <v>10.74389545476211</v>
       </c>
       <c r="C316" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
         <v>-10</v>
@@ -12469,7 +12469,7 @@
         <v>9.307456424576245</v>
       </c>
       <c r="C317" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
         <v>-10</v>
@@ -12507,7 +12507,7 @@
         <v>7.863013688350367</v>
       </c>
       <c r="C318" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>-10</v>
@@ -12545,7 +12545,7 @@
         <v>6.411809357196788</v>
       </c>
       <c r="C319" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D319" t="n">
         <v>-10</v>
@@ -12583,7 +12583,7 @@
         <v>4.955091356686228</v>
       </c>
       <c r="C320" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D320" t="n">
         <v>-10</v>
@@ -12621,7 +12621,7 @@
         <v>3.494112353726532</v>
       </c>
       <c r="C321" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
         <v>-10</v>
@@ -12659,7 +12659,7 @@
         <v>2.03012867936422</v>
       </c>
       <c r="C322" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
         <v>-10</v>
@@ -12697,7 +12697,7 @@
         <v>0.5643992484351477</v>
       </c>
       <c r="C323" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
         <v>-10</v>
@@ -12735,7 +12735,7 @@
         <v>-0.9018155230066941</v>
       </c>
       <c r="C324" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
         <v>-10</v>
@@ -12773,7 +12773,7 @@
         <v>-2.367254801551313</v>
       </c>
       <c r="C325" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
         <v>-10</v>
@@ -12811,7 +12811,7 @@
         <v>-3.830658420653744</v>
       </c>
       <c r="C326" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
         <v>-10</v>
@@ -12849,7 +12849,7 @@
         <v>-5.290767964281627</v>
       </c>
       <c r="C327" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
         <v>-10</v>
@@ -12887,7 +12887,7 @@
         <v>-6.74632784905747</v>
       </c>
       <c r="C328" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D328" t="n">
         <v>-10</v>
@@ -12925,7 +12925,7 @@
         <v>-8.196086403965049</v>
       </c>
       <c r="C329" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
         <v>-10</v>
@@ -12963,7 +12963,7 @@
         <v>-9.638796946691484</v>
       </c>
       <c r="C330" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D330" t="n">
         <v>-10</v>
@@ -13001,7 +13001,7 @@
         <v>-11.07321885567929</v>
       </c>
       <c r="C331" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D331" t="n">
         <v>-10</v>
@@ -13039,7 +13039,7 @@
         <v>-12.4981186369672</v>
       </c>
       <c r="C332" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
         <v>-10</v>
@@ -13077,7 +13077,7 @@
         <v>-13.91227098490039</v>
       </c>
       <c r="C333" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
         <v>-10</v>
@@ -13115,7 +13115,7 @@
         <v>-15.3144598358016</v>
       </c>
       <c r="C334" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
         <v>-10</v>
@@ -13153,7 +13153,7 @@
         <v>-16.70347941369227</v>
       </c>
       <c r="C335" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
         <v>-10</v>
@@ -13191,7 +13191,7 @@
         <v>-18.07813526716967</v>
       </c>
       <c r="C336" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
         <v>-10</v>
@@ -13229,7 +13229,7 @@
         <v>-19.43724529654313</v>
       </c>
       <c r="C337" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
         <v>-10</v>
@@ -13267,7 +13267,7 @@
         <v>-20.77964077035134</v>
       </c>
       <c r="C338" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D338" t="n">
         <v>-10</v>
@@ -13305,7 +13305,7 @@
         <v>-22.1041673303814</v>
       </c>
       <c r="C339" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
         <v>-10</v>
@@ -13343,7 +13343,7 @@
         <v>-23.40968598433058</v>
       </c>
       <c r="C340" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
         <v>-10</v>
@@ -13381,7 +13381,7 @@
         <v>-24.69507408525193</v>
       </c>
       <c r="C341" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
         <v>-10</v>
@@ -13419,7 +13419,7 @@
         <v>-25.95922629694672</v>
       </c>
       <c r="C342" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D342" t="n">
         <v>-10</v>
@@ -13457,7 +13457,7 @@
         <v>-27.20105554446842</v>
       </c>
       <c r="C343" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D343" t="n">
         <v>-10</v>
@@ -13495,7 +13495,7 @@
         <v>-28.41949394892584</v>
       </c>
       <c r="C344" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D344" t="n">
         <v>-10</v>
@@ -13533,7 +13533,7 @@
         <v>-29.6134937457768</v>
       </c>
       <c r="C345" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D345" t="n">
         <v>-10</v>
@@ -13571,7 +13571,7 @@
         <v>-30.78202818582717</v>
       </c>
       <c r="C346" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
         <v>-10</v>
@@ -13609,7 +13609,7 @@
         <v>-31.92409241815616</v>
       </c>
       <c r="C347" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D347" t="n">
         <v>-10</v>
@@ -13647,7 +13647,7 @@
         <v>-33.03870435421295</v>
       </c>
       <c r="C348" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
         <v>-10</v>
@@ -13685,7 +13685,7 @@
         <v>-34.12490551233721</v>
       </c>
       <c r="C349" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
         <v>-10</v>
@@ -13723,7 +13723,7 @@
         <v>-35.18176184198163</v>
       </c>
       <c r="C350" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D350" t="n">
         <v>-10</v>
@@ -13761,7 +13761,7 @@
         <v>-36.2083645269234</v>
       </c>
       <c r="C351" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D351" t="n">
         <v>-10</v>
@@ -13799,7 +13799,7 @@
         <v>-37.20383076677833</v>
       </c>
       <c r="C352" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D352" t="n">
         <v>-10</v>
@@ -13837,7 +13837,7 @@
         <v>-38.16730453614102</v>
       </c>
       <c r="C353" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D353" t="n">
         <v>-10</v>
@@ -13875,7 +13875,7 @@
         <v>-39.09795732070288</v>
       </c>
       <c r="C354" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D354" t="n">
         <v>-10</v>
@@ -13913,7 +13913,7 @@
         <v>-39.9949888297103</v>
       </c>
       <c r="C355" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
         <v>-10</v>
@@ -13951,7 +13951,7 @@
         <v>-40.85762768415523</v>
       </c>
       <c r="C356" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D356" t="n">
         <v>-10</v>
@@ -13989,7 +13989,7 @@
         <v>-41.68513208010151</v>
       </c>
       <c r="C357" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D357" t="n">
         <v>-10</v>
@@ -14027,7 +14027,7 @@
         <v>-42.47679042658076</v>
       </c>
       <c r="C358" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D358" t="n">
         <v>-10</v>
@@ -14065,7 +14065,7 @@
         <v>-43.23192195750588</v>
       </c>
       <c r="C359" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D359" t="n">
         <v>-10</v>
@@ -14103,7 +14103,7 @@
         <v>-43.94987731707891</v>
       </c>
       <c r="C360" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
         <v>-10</v>
@@ -14141,7 +14141,7 @@
         <v>-44.63003911818709</v>
       </c>
       <c r="C361" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D361" t="n">
         <v>-10</v>
@@ -14179,7 +14179,7 @@
         <v>-45.27182247330946</v>
       </c>
       <c r="C362" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
         <v>-10</v>
@@ -14217,7 +14217,7 @@
         <v>-45.87467549747523</v>
       </c>
       <c r="C363" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D363" t="n">
         <v>-10</v>
@@ -14255,7 +14255,7 @@
         <v>-46.4380797828435</v>
       </c>
       <c r="C364" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
         <v>-10</v>
@@ -14293,7 +14293,7 @@
         <v>-46.96155084449406</v>
       </c>
       <c r="C365" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D365" t="n">
         <v>-10</v>
@@ -14331,7 +14331,7 @@
         <v>-47.44463853704824</v>
       </c>
       <c r="C366" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
         <v>-10</v>
@@ -14369,7 +14369,7 @@
         <v>-47.88692744175925</v>
       </c>
       <c r="C367" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D367" t="n">
         <v>-10</v>
@@ -14407,7 +14407,7 @@
         <v>-48.28803722374119</v>
       </c>
       <c r="C368" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
         <v>-10</v>
@@ -14445,7 +14445,7 @@
         <v>-48.64762295902783</v>
       </c>
       <c r="C369" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D369" t="n">
         <v>-10</v>
@@ -14483,7 +14483,7 @@
         <v>-48.96537543118135</v>
       </c>
       <c r="C370" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D370" t="n">
         <v>-10</v>
@@ -14521,7 +14521,7 @@
         <v>-49.24102139719473</v>
       </c>
       <c r="C371" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
         <v>-10</v>
@@ -14559,7 +14559,7 @@
         <v>-49.47432382246024</v>
       </c>
       <c r="C372" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D372" t="n">
         <v>-10</v>
@@ -14597,7 +14597,7 @@
         <v>-49.66508208460098</v>
       </c>
       <c r="C373" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
         <v>-10</v>
@@ -14635,7 +14635,7 @@
         <v>-49.81313214599111</v>
       </c>
       <c r="C374" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D374" t="n">
         <v>-10</v>
@@ -14673,7 +14673,7 @@
         <v>-49.9183466948156</v>
       </c>
       <c r="C375" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D375" t="n">
         <v>-10</v>
@@ -14711,7 +14711,7 @@
         <v>-49.98063525454881</v>
       </c>
       <c r="C376" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D376" t="n">
         <v>-10</v>
@@ -14749,7 +14749,7 @@
         <v>-49.99994426175739</v>
       </c>
       <c r="C377" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
         <v>-10</v>
@@ -14787,7 +14787,7 @@
         <v>-49.9762571121608</v>
       </c>
       <c r="C378" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D378" t="n">
         <v>-10</v>
@@ -14825,7 +14825,7 @@
         <v>-49.90959417490973</v>
       </c>
       <c r="C379" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D379" t="n">
         <v>-10</v>
@@ -14863,7 +14863,7 @@
         <v>-49.80001277507012</v>
       </c>
       <c r="C380" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
         <v>-10</v>
@@ -14901,7 +14901,7 @@
         <v>-49.64760714432803</v>
       </c>
       <c r="C381" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
         <v>-10</v>
@@ -14939,7 +14939,7 @@
         <v>-49.45250833995752</v>
       </c>
       <c r="C382" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
         <v>-10</v>
@@ -14977,7 +14977,7 @@
         <v>-49.21488413212132</v>
       </c>
       <c r="C383" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D383" t="n">
         <v>-10</v>
@@ -15015,7 +15015,7 @@
         <v>-48.9349388596012</v>
       </c>
       <c r="C384" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
         <v>-10</v>
@@ -15053,7 +15053,7 @@
         <v>-48.61291325408227</v>
       </c>
       <c r="C385" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
         <v>-10</v>
@@ -15091,7 +15091,7 @@
         <v>-48.24908423314174</v>
       </c>
       <c r="C386" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D386" t="n">
         <v>-10</v>
@@ -15129,7 +15129,7 @@
         <v>-47.84376466212117</v>
       </c>
       <c r="C387" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D387" t="n">
         <v>-10</v>
@@ -15167,7 +15167,7 @@
         <v>-47.39730308508565</v>
       </c>
       <c r="C388" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
         <v>-10</v>
@@ -15205,7 +15205,7 @@
         <v>-46.91008342510274</v>
       </c>
       <c r="C389" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D389" t="n">
         <v>-10</v>
@@ -15243,7 +15243,7 @@
         <v>-46.38252465409736</v>
       </c>
       <c r="C390" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D390" t="n">
         <v>-10</v>
@@ -15281,7 +15281,7 @@
         <v>-45.8150804325682</v>
       </c>
       <c r="C391" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D391" t="n">
         <v>-10</v>
@@ -15319,7 +15319,7 @@
         <v>-45.20823871947363</v>
       </c>
       <c r="C392" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
         <v>-10</v>
@@ -15357,7 +15357,7 @@
         <v>-44.56252135262456</v>
       </c>
       <c r="C393" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
         <v>-10</v>
@@ -15395,7 +15395,7 @@
         <v>-43.87848359994297</v>
       </c>
       <c r="C394" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D394" t="n">
         <v>-10</v>
@@ -15433,7 +15433,7 @@
         <v>-43.15671368197426</v>
       </c>
       <c r="C395" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
         <v>-10</v>
@@ -15471,7 +15471,7 @@
         <v>-42.39783226606154</v>
       </c>
       <c r="C396" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D396" t="n">
         <v>-10</v>
@@ -15509,7 +15509,7 @@
         <v>-41.60249193261958</v>
       </c>
       <c r="C397" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
         <v>-10</v>
@@ -15547,7 +15547,7 @@
         <v>-40.77137661396441</v>
       </c>
       <c r="C398" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D398" t="n">
         <v>-10</v>
@@ -15585,7 +15585,7 @@
         <v>-39.90520100618424</v>
       </c>
       <c r="C399" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D399" t="n">
         <v>-10</v>
@@ -15623,7 +15623,7 @@
         <v>-39.00470995455423</v>
       </c>
       <c r="C400" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D400" t="n">
         <v>-10</v>
@@ -15661,7 +15661,7 @@
         <v>-38.07067781302698</v>
       </c>
       <c r="C401" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D401" t="n">
         <v>-10</v>
@@ -15699,7 +15699,7 @@
         <v>-37.10390777834601</v>
       </c>
       <c r="C402" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D402" t="n">
         <v>-10</v>
@@ -15737,7 +15737,7 @@
         <v>-36.10523119935841</v>
       </c>
       <c r="C403" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D403" t="n">
         <v>-10</v>
@@ -15775,7 +15775,7 @@
         <v>-35.07550686211706</v>
       </c>
       <c r="C404" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D404" t="n">
         <v>-10</v>
@@ -15813,7 +15813,7 @@
         <v>-34.0156202513907</v>
       </c>
       <c r="C405" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
         <v>-10</v>
@@ -15851,7 +15851,7 @@
         <v>-32.92648278921331</v>
       </c>
       <c r="C406" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D406" t="n">
         <v>-10</v>
@@ -15889,7 +15889,7 @@
         <v>-31.80903105113134</v>
       </c>
       <c r="C407" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D407" t="n">
         <v>-10</v>
@@ -15927,7 +15927,7 @@
         <v>-30.66422596081879</v>
       </c>
       <c r="C408" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D408" t="n">
         <v>-10</v>
@@ -15965,7 +15965,7 @@
         <v>-29.49305196375683</v>
       </c>
       <c r="C409" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>-10</v>
@@ -16003,7 +16003,7 @@
         <v>-28.29651618068437</v>
       </c>
       <c r="C410" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D410" t="n">
         <v>-10</v>
@@ -16041,7 +16041,7 @@
         <v>-27.07564754155174</v>
       </c>
       <c r="C411" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D411" t="n">
         <v>-10</v>
@@ -16079,7 +16079,7 @@
         <v>-25.83149590071794</v>
       </c>
       <c r="C412" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D412" t="n">
         <v>-10</v>
@@ -16117,7 +16117,7 @@
         <v>-24.56513113415669</v>
       </c>
       <c r="C413" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D413" t="n">
         <v>-10</v>
@@ -16155,7 +16155,7 @@
         <v>-23.27764221944315</v>
       </c>
       <c r="C414" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D414" t="n">
         <v>-10</v>
@@ -16193,7 +16193,7 @@
         <v>-21.97013629931708</v>
       </c>
       <c r="C415" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D415" t="n">
         <v>-10</v>
@@ -16231,7 +16231,7 @@
         <v>-20.64373772962286</v>
       </c>
       <c r="C416" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D416" t="n">
         <v>-10</v>
@@ -16269,7 +16269,7 @@
         <v>-19.29958711245009</v>
       </c>
       <c r="C417" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D417" t="n">
         <v>-10</v>
@@ -16307,7 +16307,7 @@
         <v>-17.93884031530108</v>
       </c>
       <c r="C418" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D418" t="n">
         <v>-10</v>
@@ -16345,7 +16345,7 @@
         <v>-16.56266747713375</v>
       </c>
       <c r="C419" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
         <v>-10</v>
@@ -16383,7 +16383,7 @@
         <v>-15.17225200213006</v>
       </c>
       <c r="C420" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D420" t="n">
         <v>-10</v>
@@ -16421,7 +16421,7 @@
         <v>-13.76878954205863</v>
       </c>
       <c r="C421" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D421" t="n">
         <v>-10</v>
@@ -16459,7 +16459,7 @@
         <v>-12.3534869681049</v>
       </c>
       <c r="C422" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D422" t="n">
         <v>-10</v>
@@ -16497,7 +16497,7 @@
         <v>-10.92756133305353</v>
       </c>
       <c r="C423" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
         <v>-10</v>
@@ -16535,7 +16535,7 @@
         <v>-9.49223882471537</v>
       </c>
       <c r="C424" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D424" t="n">
         <v>-10</v>
@@ -16573,7 +16573,7 @@
         <v>-8.048753711499037</v>
       </c>
       <c r="C425" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
         <v>-10</v>
@@ -16611,7 +16611,7 @@
         <v>-6.598347281033747</v>
       </c>
       <c r="C426" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D426" t="n">
         <v>-10</v>
@@ -16649,7 +16649,7 @@
         <v>-5.142266772756188</v>
       </c>
       <c r="C427" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D427" t="n">
         <v>-10</v>
@@ -16687,7 +16687,7 @@
         <v>-3.681764305379277</v>
       </c>
       <c r="C428" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D428" t="n">
         <v>-10</v>
@@ -16725,7 +16725,7 @@
         <v>-2.218095800165102</v>
       </c>
       <c r="C429" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D429" t="n">
         <v>-10</v>
@@ -16763,7 +16763,7 @@
         <v>-0.7525199009279758</v>
       </c>
       <c r="C430" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D430" t="n">
         <v>-10</v>
@@ -16801,7 +16801,7 @@
         <v>0.7137031083037119</v>
       </c>
       <c r="C431" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D431" t="n">
         <v>-10</v>
@@ -16839,7 +16839,7 @@
         <v>2.179312387036095</v>
       </c>
       <c r="C432" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D432" t="n">
         <v>-10</v>
@@ -16877,7 +16877,7 @@
         <v>3.643047622536952</v>
       </c>
       <c r="C433" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D433" t="n">
         <v>-10</v>
@@ -16915,7 +16915,7 @@
         <v>5.10365011360899</v>
       </c>
       <c r="C434" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D434" t="n">
         <v>-10</v>
@@ -16953,7 +16953,7 @@
         <v>6.559863852977332</v>
       </c>
       <c r="C435" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D435" t="n">
         <v>-10</v>
@@ -16991,7 +16991,7 @@
         <v>8.01043660736044</v>
       </c>
       <c r="C436" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D436" t="n">
         <v>-10</v>
@@ -17029,7 +17029,7 @@
         <v>9.454120994295678</v>
       </c>
       <c r="C437" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D437" t="n">
         <v>-10</v>
@@ -17067,7 +17067,7 @@
         <v>10.88967555479356</v>
       </c>
       <c r="C438" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D438" t="n">
         <v>-10</v>
@@ -17105,7 +17105,7 @@
         <v>12.31586582089822</v>
       </c>
       <c r="C439" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D439" t="n">
         <v>-10</v>
@@ -17143,7 +17143,7 @@
         <v>13.7314653772362</v>
       </c>
       <c r="C440" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D440" t="n">
         <v>-10</v>
@@ -17181,7 +17181,7 @@
         <v>15.13525691564053</v>
       </c>
       <c r="C441" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D441" t="n">
         <v>-10</v>
@@ -17219,7 +17219,7 @@
         <v>16.52603328194338</v>
       </c>
       <c r="C442" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D442" t="n">
         <v>-10</v>
@@ -17257,7 +17257,7 @@
         <v>17.90259851403699</v>
       </c>
       <c r="C443" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D443" t="n">
         <v>-10</v>
@@ -17295,7 +17295,7 @@
         <v>19.26376887031035</v>
       </c>
       <c r="C444" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D444" t="n">
         <v>-10</v>
@@ -17333,7 +17333,7 @@
         <v>20.60837384757707</v>
       </c>
       <c r="C445" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D445" t="n">
         <v>-10</v>
@@ -17371,7 +17371,7 @@
         <v>21.93525718761935</v>
       </c>
       <c r="C446" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D446" t="n">
         <v>-10</v>
@@ -17409,7 +17409,7 @@
         <v>23.24327787148218</v>
       </c>
       <c r="C447" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D447" t="n">
         <v>-10</v>
@@ -17447,7 +17447,7 @@
         <v>24.53131110066313</v>
       </c>
       <c r="C448" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D448" t="n">
         <v>-10</v>
@@ -17485,7 +17485,7 @@
         <v>25.79824926435364</v>
       </c>
       <c r="C449" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D449" t="n">
         <v>-10</v>
@@ -17523,7 +17523,7 @@
         <v>27.04300289190022</v>
       </c>
       <c r="C450" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D450" t="n">
         <v>-10</v>
@@ -17561,7 +17561,7 @@
         <v>28.26450158966657</v>
       </c>
       <c r="C451" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D451" t="n">
         <v>-10</v>
@@ -17599,7 +17599,7 @@
         <v>29.46169496149081</v>
       </c>
       <c r="C452" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D452" t="n">
         <v>-10</v>
@@ -17637,7 +17637,7 @@
         <v>30.63355351194649</v>
       </c>
       <c r="C453" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D453" t="n">
         <v>-10</v>
@@ -17675,7 +17675,7 @@
         <v>31.77906953163044</v>
       </c>
       <c r="C454" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D454" t="n">
         <v>-10</v>
@@ -17713,7 +17713,7 @@
         <v>32.89725796371648</v>
       </c>
       <c r="C455" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D455" t="n">
         <v>-10</v>
@@ -17751,7 +17751,7 @@
         <v>33.98715725102942</v>
       </c>
       <c r="C456" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D456" t="n">
         <v>-10</v>
@@ -17789,7 +17789,7 @@
         <v>35.04783016291127</v>
       </c>
       <c r="C457" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D457" t="n">
         <v>-10</v>
@@ -17827,7 +17827,7 @@
         <v>36.0783646011685</v>
       </c>
       <c r="C458" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D458" t="n">
         <v>-10</v>
@@ -17865,7 +17865,7 @@
         <v>37.07787438440722</v>
       </c>
       <c r="C459" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D459" t="n">
         <v>-10</v>
@@ -17903,7 +17903,7 @@
         <v>38.04550001008192</v>
       </c>
       <c r="C460" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D460" t="n">
         <v>-10</v>
@@ -17941,7 +17941,7 @@
         <v>38.98040939360241</v>
       </c>
       <c r="C461" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D461" t="n">
         <v>-10</v>
@@ -17979,7 +17979,7 @@
         <v>39.88179858386343</v>
       </c>
       <c r="C462" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D462" t="n">
         <v>-10</v>
@@ -18017,7 +18017,7 @@
         <v>40.74889245458155</v>
       </c>
       <c r="C463" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D463" t="n">
         <v>-10</v>
@@ -18055,7 +18055,7 @@
         <v>41.58094537084496</v>
       </c>
       <c r="C464" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D464" t="n">
         <v>-10</v>
@@ -18093,7 +18093,7 @@
         <v>42.37724183030289</v>
       </c>
       <c r="C465" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D465" t="n">
         <v>-10</v>
@@ -18131,7 +18131,7 @@
         <v>43.13709707844332</v>
       </c>
       <c r="C466" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D466" t="n">
         <v>-10</v>
@@ -18169,7 +18169,7 @@
         <v>43.85985769742986</v>
       </c>
       <c r="C467" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D467" t="n">
         <v>-10</v>
@@ -18207,7 +18207,7 @@
         <v>44.54490216799155</v>
       </c>
       <c r="C468" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D468" t="n">
         <v>-10</v>
@@ -18245,7 +18245,7 @@
         <v>45.19164140388219</v>
       </c>
       <c r="C469" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D469" t="n">
         <v>-10</v>
@@ -18283,7 +18283,7 @@
         <v>45.79951925844985</v>
       </c>
       <c r="C470" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D470" t="n">
         <v>-10</v>
@@ -18321,7 +18321,7 @@
         <v>46.36801300288072</v>
       </c>
       <c r="C471" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D471" t="n">
         <v>-10</v>
@@ -18359,7 +18359,7 @@
         <v>46.89663377570631</v>
       </c>
       <c r="C472" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D472" t="n">
         <v>-10</v>
@@ -18397,7 +18397,7 @@
         <v>47.38492700318705</v>
       </c>
       <c r="C473" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D473" t="n">
         <v>-10</v>
@@ -18435,7 +18435,7 @@
         <v>47.83247279021137</v>
       </c>
       <c r="C474" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D474" t="n">
         <v>-10</v>
@@ -18473,7 +18473,7 @@
         <v>48.23888628137352</v>
       </c>
       <c r="C475" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D475" t="n">
         <v>-10</v>
@@ -18511,7 +18511,7 @@
         <v>48.60381799192002</v>
       </c>
       <c r="C476" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D476" t="n">
         <v>-10</v>
@@ -18549,7 +18549,7 @@
         <v>48.92695410828006</v>
       </c>
       <c r="C477" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D477" t="n">
         <v>-10</v>
@@ -18587,7 +18587,7 @@
         <v>49.2080167579213</v>
       </c>
       <c r="C478" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D478" t="n">
         <v>-10</v>
@@ -18625,7 +18625,7 @@
         <v>49.44676424829918</v>
       </c>
       <c r="C479" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D479" t="n">
         <v>-10</v>
@@ -18663,7 +18663,7 @@
         <v>49.64299127469419</v>
       </c>
       <c r="C480" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D480" t="n">
         <v>-10</v>
@@ -18701,7 +18701,7 @@
         <v>49.79652909675828</v>
       </c>
       <c r="C481" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D481" t="n">
         <v>-10</v>
@@ -18739,7 +18739,7 @@
         <v>49.90724568361883</v>
       </c>
       <c r="C482" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D482" t="n">
         <v>-10</v>
@@ -18777,7 +18777,7 @@
         <v>49.97504582741507</v>
       </c>
       <c r="C483" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D483" t="n">
         <v>-10</v>
@@ -18815,7 +18815,7 @@
         <v>49.99987122516977</v>
       </c>
       <c r="C484" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D484" t="n">
         <v>-10</v>
@@ -18853,7 +18853,7 @@
         <v>49.98170052892522</v>
       </c>
       <c r="C485" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D485" t="n">
         <v>-10</v>
@@ -18891,7 +18891,7 @@
         <v>49.92054936410094</v>
       </c>
       <c r="C486" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D486" t="n">
         <v>-10</v>
@@ -18929,7 +18929,7 @@
         <v>49.81647031605698</v>
       </c>
       <c r="C487" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D487" t="n">
         <v>-10</v>
@@ -18967,7 +18967,7 @@
         <v>49.66955288487453</v>
       </c>
       <c r="C488" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D488" t="n">
         <v>-10</v>
@@ -19005,7 +19005,7 @@
         <v>49.47992340839255</v>
       </c>
       <c r="C489" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D489" t="n">
         <v>-10</v>
@@ -19043,7 +19043,7 @@
         <v>49.24774495356699</v>
       </c>
       <c r="C490" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D490" t="n">
         <v>-10</v>
@@ -19081,7 +19081,7 @@
         <v>48.97321717624538</v>
       </c>
       <c r="C491" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D491" t="n">
         <v>-10</v>
@@ -19119,7 +19119,7 @@
         <v>48.65657614947817</v>
       </c>
       <c r="C492" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D492" t="n">
         <v>-10</v>
@@ -19157,7 +19157,7 @@
         <v>48.29809416051356</v>
       </c>
       <c r="C493" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D493" t="n">
         <v>-10</v>
@@ -19195,7 +19195,7 @@
         <v>47.8980794766515</v>
       </c>
       <c r="C494" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D494" t="n">
         <v>-10</v>
@@ -19233,7 +19233,7 @@
         <v>47.45687608015679</v>
       </c>
       <c r="C495" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D495" t="n">
         <v>-10</v>
@@ -19271,7 +19271,7 @@
         <v>46.97486337246077</v>
       </c>
       <c r="C496" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D496" t="n">
         <v>-10</v>
@@ -19309,7 +19309,7 @@
         <v>46.45245584790476</v>
       </c>
       <c r="C497" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D497" t="n">
         <v>-10</v>
@@ -19347,7 +19347,7 @@
         <v>45.89010273730638</v>
       </c>
       <c r="C498" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D498" t="n">
         <v>-10</v>
@@ -19385,7 +19385,7 @@
         <v>45.28828762165518</v>
       </c>
       <c r="C499" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D499" t="n">
         <v>-10</v>
@@ -19423,7 +19423,7 @@
         <v>44.64752801626966</v>
       </c>
       <c r="C500" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D500" t="n">
         <v>-10</v>
@@ -19461,7 +19461,7 @@
         <v>43.96837492577342</v>
       </c>
       <c r="C501" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D501" t="n">
         <v>-10</v>
@@ -19499,7 +19499,7 @@
         <v>43.25141237027297</v>
       </c>
       <c r="C502" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D502" t="n">
         <v>-10</v>
@@ -19537,7 +19537,7 @@
         <v>42.49725688314481</v>
       </c>
       <c r="C503" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D503" t="n">
         <v>-10</v>
@@ -19575,7 +19575,7 @@
         <v>41.70655698086348</v>
       </c>
       <c r="C504" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D504" t="n">
         <v>-10</v>
@@ -19613,7 +19613,7 @@
         <v>40.87999260532663</v>
       </c>
       <c r="C505" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D505" t="n">
         <v>-10</v>
@@ -19651,7 +19651,7 @@
         <v>40.01827453915663</v>
       </c>
       <c r="C506" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D506" t="n">
         <v>-10</v>
@@ -19689,7 +19689,7 @@
         <v>39.12214379448143</v>
       </c>
       <c r="C507" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D507" t="n">
         <v>-10</v>
@@ -19727,7 +19727,7 @@
         <v>38.19237097572039</v>
       </c>
       <c r="C508" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D508" t="n">
         <v>-10</v>
@@ -19765,7 +19765,7 @@
         <v>37.22975561692297</v>
       </c>
       <c r="C509" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D509" t="n">
         <v>-10</v>
@@ -19803,7 +19803,7 @@
         <v>36.23512549423015</v>
       </c>
       <c r="C510" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D510" t="n">
         <v>-10</v>
@@ -19841,7 +19841,7 @@
         <v>35.20933591404977</v>
       </c>
       <c r="C511" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D511" t="n">
         <v>-10</v>
@@ -19879,7 +19879,7 @@
         <v>34.15326897755793</v>
       </c>
       <c r="C512" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D512" t="n">
         <v>-10</v>
@@ -19917,7 +19917,7 @@
         <v>33.06783282215896</v>
       </c>
       <c r="C513" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D513" t="n">
         <v>-10</v>
@@ -19955,7 +19955,7 @@
         <v>31.95396084055615</v>
       </c>
       <c r="C514" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D514" t="n">
         <v>-10</v>
@@ -19993,7 +19993,7 @@
         <v>30.81261087810491</v>
       </c>
       <c r="C515" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D515" t="n">
         <v>-10</v>
@@ -20031,7 +20031,7 @@
         <v>29.64476440913847</v>
       </c>
       <c r="C516" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D516" t="n">
         <v>-10</v>
@@ -20069,7 +20069,7 @@
         <v>28.45142569297442</v>
       </c>
       <c r="C517" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D517" t="n">
         <v>-10</v>
@@ -20107,7 +20107,7 @@
         <v>27.23362091032794</v>
       </c>
       <c r="C518" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D518" t="n">
         <v>-10</v>
@@ -20145,7 +20145,7 @@
         <v>25.9923972808743</v>
       </c>
       <c r="C519" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D519" t="n">
         <v>-10</v>
@@ -20183,7 +20183,7 @@
         <v>24.72882216271938</v>
       </c>
       <c r="C520" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D520" t="n">
         <v>-10</v>
@@ -20221,7 +20221,7 @@
         <v>23.44398213455279</v>
       </c>
       <c r="C521" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D521" t="n">
         <v>-10</v>
@@ -20259,7 +20259,7 @@
         <v>22.13898206127259</v>
       </c>
       <c r="C522" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D522" t="n">
         <v>-10</v>
@@ -20297,7 +20297,7 @@
         <v>20.8149441438854</v>
       </c>
       <c r="C523" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D523" t="n">
         <v>-10</v>
@@ -20335,7 +20335,7 @@
         <v>19.47300695449871</v>
       </c>
       <c r="C524" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D524" t="n">
         <v>-10</v>
@@ -20373,7 +20373,7 @@
         <v>18.11432445723526</v>
       </c>
       <c r="C525" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D525" t="n">
         <v>-10</v>
@@ -20411,7 +20411,7 @@
         <v>16.74006501591152</v>
       </c>
       <c r="C526" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D526" t="n">
         <v>-10</v>
@@ -20449,7 +20449,7 @@
         <v>15.35141038933348</v>
       </c>
       <c r="C527" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D527" t="n">
         <v>-10</v>
@@ -20487,7 +20487,7 @@
         <v>13.94955471507377</v>
       </c>
       <c r="C528" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D528" t="n">
         <v>-10</v>
@@ -20525,7 +20525,7 @@
         <v>12.535703482604</v>
       </c>
       <c r="C529" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D529" t="n">
         <v>-10</v>
@@ -20563,7 +20563,7 @@
         <v>11.11107249666532</v>
       </c>
       <c r="C530" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D530" t="n">
         <v>-10</v>
@@ -20601,7 +20601,7 @@
         <v>9.676886831768615</v>
       </c>
       <c r="C531" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D531" t="n">
         <v>-10</v>
@@ -20639,7 +20639,7 @@
         <v>8.234379778723426</v>
       </c>
       <c r="C532" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D532" t="n">
         <v>-10</v>
@@ -20677,7 +20677,7 @@
         <v>6.784791784101467</v>
       </c>
       <c r="C533" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D533" t="n">
         <v>-10</v>
@@ -20715,7 +20715,7 @@
         <v>5.329369383546723</v>
       </c>
       <c r="C534" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D534" t="n">
         <v>-10</v>
@@ -20753,7 +20753,7 @@
         <v>3.869364129849422</v>
       </c>
       <c r="C535" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D535" t="n">
         <v>-10</v>
@@ -20791,7 +20791,7 @@
         <v>2.406031516705633</v>
       </c>
       <c r="C536" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D536" t="n">
         <v>-10</v>
@@ -20829,7 +20829,7 @@
         <v>0.9406298990879811</v>
       </c>
       <c r="C537" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D537" t="n">
         <v>-10</v>
@@ -20867,7 +20867,7 @@
         <v>-0.5255805888441073</v>
       </c>
       <c r="C538" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D538" t="n">
         <v>-10</v>
@@ -20905,7 +20905,7 @@
         <v>-1.991339117364133</v>
       </c>
       <c r="C539" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D539" t="n">
         <v>-10</v>
@@ -20943,7 +20943,7 @@
         <v>-3.455385245396386</v>
       </c>
       <c r="C540" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D540" t="n">
         <v>-10</v>
@@ -20981,7 +20981,7 @@
         <v>-4.916460004399595</v>
       </c>
       <c r="C541" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D541" t="n">
         <v>-10</v>
@@ -21019,7 +21019,7 @@
         <v>-6.373306980984311</v>
       </c>
       <c r="C542" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D542" t="n">
         <v>-10</v>
@@ -21057,7 +21057,7 @@
         <v>-7.824673397333052</v>
       </c>
       <c r="C543" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D543" t="n">
         <v>-10</v>
@@ -21095,7 +21095,7 @@
         <v>-9.269311188494141</v>
       </c>
       <c r="C544" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D544" t="n">
         <v>-10</v>
@@ -21133,7 +21133,7 @@
         <v>-10.70597807562282</v>
       </c>
       <c r="C545" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D545" t="n">
         <v>-10</v>
@@ -21171,7 +21171,7 @@
         <v>-12.13343863424676</v>
       </c>
       <c r="C546" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D546" t="n">
         <v>-10</v>
@@ -21209,7 +21209,7 @@
         <v>-13.55046535663735</v>
       </c>
       <c r="C547" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D547" t="n">
         <v>-10</v>
@@ -21247,7 +21247,7 @@
         <v>-14.95583970737306</v>
       </c>
       <c r="C548" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D548" t="n">
         <v>-10</v>
@@ -21285,7 +21285,7 @@
         <v>-16.34835317118785</v>
       </c>
       <c r="C549" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D549" t="n">
         <v>-10</v>
@@ -21323,7 +21323,7 @@
         <v>-17.72680829220163</v>
       </c>
       <c r="C550" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D550" t="n">
         <v>-10</v>
@@ -21361,7 +21361,7 @@
         <v>-19.09001970364269</v>
       </c>
       <c r="C551" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D551" t="n">
         <v>-10</v>
@@ -21399,7 +21399,7 @@
         <v>-20.43681514717182</v>
       </c>
       <c r="C552" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D552" t="n">
         <v>-10</v>
@@ -21437,7 +21437,7 @@
         <v>-21.76603648093678</v>
       </c>
       <c r="C553" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D553" t="n">
         <v>-10</v>
@@ -21475,7 +21475,7 @@
         <v>-23.07654067548516</v>
       </c>
       <c r="C554" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D554" t="n">
         <v>-10</v>
@@ -21513,7 +21513,7 @@
         <v>-24.36720079668413</v>
       </c>
       <c r="C555" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D555" t="n">
         <v>-10</v>
@@ -21551,7 +21551,7 @@
         <v>-25.63690697479708</v>
       </c>
       <c r="C556" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D556" t="n">
         <v>-10</v>
@@ -21589,7 +21589,7 @@
         <v>-26.88456735888855</v>
       </c>
       <c r="C557" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D557" t="n">
         <v>-10</v>
@@ -21627,7 +21627,7 @@
         <v>-28.10910905573193</v>
       </c>
       <c r="C558" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D558" t="n">
         <v>-10</v>
@@ -21665,7 +21665,7 @@
         <v>-29.30947905241743</v>
       </c>
       <c r="C559" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D559" t="n">
         <v>-10</v>
@@ -21703,7 +21703,7 @@
         <v>-30.48464512186201</v>
       </c>
       <c r="C560" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D560" t="n">
         <v>-10</v>
@@ -21741,7 +21741,7 @@
         <v>-31.63359671044756</v>
       </c>
       <c r="C561" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D561" t="n">
         <v>-10</v>
@@ -21779,7 +21779,7 @@
         <v>-32.75534580701912</v>
       </c>
       <c r="C562" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D562" t="n">
         <v>-10</v>
@@ -21817,7 +21817,7 @@
         <v>-33.84892779250058</v>
       </c>
       <c r="C563" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D563" t="n">
         <v>-10</v>
@@ -21855,7 +21855,7 @@
         <v>-34.91340226939283</v>
       </c>
       <c r="C564" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D564" t="n">
         <v>-10</v>
@@ -21893,7 +21893,7 @@
         <v>-35.94785387044521</v>
       </c>
       <c r="C565" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D565" t="n">
         <v>-10</v>
@@ -21931,7 +21931,7 @@
         <v>-36.95139304580093</v>
       </c>
       <c r="C566" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D566" t="n">
         <v>-10</v>
@@ -21969,7 +21969,7 @@
         <v>-37.92315682794334</v>
       </c>
       <c r="C567" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D567" t="n">
         <v>-10</v>
@@ -22007,7 +22007,7 @@
         <v>-38.86230957378158</v>
       </c>
       <c r="C568" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D568" t="n">
         <v>-10</v>
@@ -22045,7 +22045,7 @@
         <v>-39.7680436832411</v>
       </c>
       <c r="C569" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D569" t="n">
         <v>-10</v>
@@ -22083,7 +22083,7 @@
         <v>-40.63958029373755</v>
       </c>
       <c r="C570" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D570" t="n">
         <v>-10</v>
@@ -22121,7 +22121,7 @@
         <v>-41.47616994994036</v>
       </c>
       <c r="C571" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D571" t="n">
         <v>-10</v>
@@ -22159,7 +22159,7 @@
         <v>-42.27709324824656</v>
       </c>
       <c r="C572" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D572" t="n">
         <v>-10</v>
@@ -22197,7 +22197,7 @@
         <v>-43.0416614554141</v>
       </c>
       <c r="C573" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D573" t="n">
         <v>-10</v>
@@ -22235,7 +22235,7 @@
         <v>-43.76921710081941</v>
       </c>
       <c r="C574" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D574" t="n">
         <v>-10</v>
@@ -22273,7 +22273,7 @@
         <v>-44.45913454183294</v>
       </c>
       <c r="C575" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D575" t="n">
         <v>-10</v>
@@ -22311,7 +22311,7 @@
         <v>-45.11082050182362</v>
       </c>
       <c r="C576" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D576" t="n">
         <v>-10</v>
@@ -22349,7 +22349,7 @@
         <v>-45.72371458033243</v>
       </c>
       <c r="C577" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D577" t="n">
         <v>-10</v>
@@ -22387,7 +22387,7 @@
         <v>-46.29728973497359</v>
       </c>
       <c r="C578" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D578" t="n">
         <v>-10</v>
@@ -22425,7 +22425,7 @@
         <v>-46.83105273465171</v>
       </c>
       <c r="C579" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D579" t="n">
         <v>-10</v>
@@ -22463,7 +22463,7 @@
         <v>-47.32454458370228</v>
       </c>
       <c r="C580" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D580" t="n">
         <v>-10</v>
@@ -22501,7 +22501,7 @@
         <v>-47.77734091659379</v>
       </c>
       <c r="C581" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D581" t="n">
         <v>-10</v>
@@ -22539,7 +22539,7 @@
         <v>-48.18905236284969</v>
       </c>
       <c r="C582" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D582" t="n">
         <v>-10</v>
@@ -22577,7 +22577,7 @@
         <v>-48.55932488187717</v>
       </c>
       <c r="C583" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D583" t="n">
         <v>-10</v>
@@ -22615,7 +22615,7 @@
         <v>-48.8878400674156</v>
       </c>
       <c r="C584" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D584" t="n">
         <v>-10</v>
@@ -22653,7 +22653,7 @@
         <v>-49.17431542134136</v>
       </c>
       <c r="C585" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D585" t="n">
         <v>-10</v>
@@ -22691,7 +22691,7 @@
         <v>-49.41850459659516</v>
       </c>
       <c r="C586" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D586" t="n">
         <v>-10</v>
@@ -22729,7 +22729,7 @@
         <v>-49.62019760902147</v>
       </c>
       <c r="C587" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D587" t="n">
         <v>-10</v>
@@ -22767,7 +22767,7 @@
         <v>-49.7792210179392</v>
       </c>
       <c r="C588" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D588" t="n">
         <v>-10</v>
@@ -22805,7 +22805,7 @@
         <v>-49.89543807528737</v>
       </c>
       <c r="C589" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D589" t="n">
         <v>-10</v>
@@ -22843,7 +22843,7 @@
         <v>-49.96874884321817</v>
       </c>
       <c r="C590" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D590" t="n">
         <v>-10</v>
@@ -22881,7 +22881,7 @@
         <v>-49.99909028003585</v>
       </c>
       <c r="C591" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D591" t="n">
         <v>-10</v>
@@ -22919,7 +22919,7 @@
         <v>-49.98643629440782</v>
       </c>
       <c r="C592" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D592" t="n">
         <v>-10</v>
@@ -22957,7 +22957,7 @@
         <v>-49.93079776780122</v>
       </c>
       <c r="C593" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D593" t="n">
         <v>-10</v>
@@ -22995,7 +22995,7 @@
         <v>-49.83222254512566</v>
       </c>
       <c r="C594" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D594" t="n">
         <v>-10</v>
@@ -23033,7 +23033,7 @@
         <v>-49.69079539359028</v>
       </c>
       <c r="C595" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D595" t="n">
         <v>-10</v>
@@ -23071,7 +23071,7 @@
         <v>-49.50663792981031</v>
       </c>
       <c r="C596" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D596" t="n">
         <v>-10</v>
@@ -23109,7 +23109,7 @@
         <v>-49.27990851522611</v>
       </c>
       <c r="C597" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D597" t="n">
         <v>-10</v>
@@ -23147,7 +23147,7 @@
         <v>-49.01080211992421</v>
       </c>
       <c r="C598" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D598" t="n">
         <v>-10</v>
@@ -23185,7 +23185,7 @@
         <v>-48.69955015497804</v>
       </c>
       <c r="C599" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D599" t="n">
         <v>-10</v>
@@ -23223,7 +23223,7 @@
         <v>-48.34642027345171</v>
       </c>
       <c r="C600" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D600" t="n">
         <v>-10</v>
@@ -23261,7 +23261,7 @@
         <v>-47.95171614023899</v>
       </c>
       <c r="C601" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D601" t="n">
         <v>-10</v>
@@ -23299,7 +23299,7 @@
         <v>-47.51577717093423</v>
       </c>
       <c r="C602" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D602" t="n">
         <v>-10</v>
@@ -23337,7 +23337,7 @@
         <v>-47.03897823996105</v>
       </c>
       <c r="C603" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D603" t="n">
         <v>-10</v>
@@ -23375,7 +23375,7 @@
         <v>-46.52172935820841</v>
       </c>
       <c r="C604" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D604" t="n">
         <v>-10</v>
@@ -23413,7 +23413,7 @@
         <v>-45.96447532045285</v>
       </c>
       <c r="C605" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D605" t="n">
         <v>-10</v>
@@ -23451,7 +23451,7 @@
         <v>-45.36769532286814</v>
       </c>
       <c r="C606" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D606" t="n">
         <v>-10</v>
@@ -23489,7 +23489,7 @@
         <v>-44.73190255095363</v>
       </c>
       <c r="C607" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D607" t="n">
         <v>-10</v>
@@ -23527,7 +23527,7 @@
         <v>-44.05764373823296</v>
       </c>
       <c r="C608" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D608" t="n">
         <v>-10</v>
@@ -23565,7 +23565,7 @@
         <v>-43.34549869610542</v>
       </c>
       <c r="C609" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D609" t="n">
         <v>-10</v>
@@ -23603,7 +23603,7 @@
         <v>-42.59607981525152</v>
       </c>
       <c r="C610" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D610" t="n">
         <v>-10</v>
@@ -23641,7 +23641,7 @@
         <v>-41.81003153902411</v>
       </c>
       <c r="C611" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D611" t="n">
         <v>-10</v>
@@ -23679,7 +23679,7 @@
         <v>-40.98802980927533</v>
       </c>
       <c r="C612" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D612" t="n">
         <v>-10</v>
@@ -23717,7 +23717,7 @@
         <v>-40.13078148509869</v>
       </c>
       <c r="C613" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D613" t="n">
         <v>-10</v>
@@ -23755,7 +23755,7 @@
         <v>-39.23902373498312</v>
       </c>
       <c r="C614" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D614" t="n">
         <v>-10</v>
@@ -23793,7 +23793,7 @@
         <v>-38.31352340290479</v>
       </c>
       <c r="C615" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D615" t="n">
         <v>-10</v>
@@ -23831,7 +23831,7 @@
         <v>-37.3550763488987</v>
       </c>
       <c r="C616" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D616" t="n">
         <v>-10</v>
@@ -23869,7 +23869,7 @@
         <v>-36.36450676468033</v>
       </c>
       <c r="C617" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D617" t="n">
         <v>-10</v>
@@ -23907,7 +23907,7 @@
         <v>-35.34266646490241</v>
       </c>
       <c r="C618" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D618" t="n">
         <v>-10</v>
@@ -23945,7 +23945,7 @@
         <v>-34.29043415465991</v>
       </c>
       <c r="C619" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D619" t="n">
         <v>-10</v>
@@ -23983,7 +23983,7 @@
         <v>-33.20871467386942</v>
       </c>
       <c r="C620" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D620" t="n">
         <v>-10</v>
@@ -24021,7 +24021,7 @@
         <v>-32.09843821917642</v>
       </c>
       <c r="C621" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D621" t="n">
         <v>-10</v>
@@ -24059,7 +24059,7 @@
         <v>-30.96055954405584</v>
       </c>
       <c r="C622" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D622" t="n">
         <v>-10</v>
@@ -24097,7 +24097,7 @@
         <v>-29.79605713779757</v>
       </c>
       <c r="C623" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D623" t="n">
         <v>-10</v>
@@ -24135,7 +24135,7 @@
         <v>-28.60593238407881</v>
       </c>
       <c r="C624" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D624" t="n">
         <v>-10</v>
@@ -24173,7 +24173,7 @@
         <v>-27.3912086998513</v>
       </c>
       <c r="C625" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D625" t="n">
         <v>-10</v>
@@ -24211,7 +24211,7 @@
         <v>-26.15293065527923</v>
       </c>
       <c r="C626" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D626" t="n">
         <v>-10</v>
@@ -24249,7 +24249,7 @@
         <v>-24.89216307548938</v>
       </c>
       <c r="C627" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D627" t="n">
         <v>-10</v>
@@ -24287,7 +24287,7 @@
         <v>-23.60999012490115</v>
       </c>
       <c r="C628" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D628" t="n">
         <v>-10</v>
@@ -24325,7 +24325,7 @@
         <v>-22.30751437492866</v>
       </c>
       <c r="C629" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D629" t="n">
         <v>-10</v>
@@ -24363,7 +24363,7 @@
         <v>-20.98585585585177</v>
       </c>
       <c r="C630" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D630" t="n">
         <v>-10</v>
@@ -24401,7 +24401,7 @@
         <v>-19.64615109367635</v>
       </c>
       <c r="C631" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D631" t="n">
         <v>-10</v>
@@ -24439,7 +24439,7 @@
         <v>-18.28955213280687</v>
       </c>
       <c r="C632" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D632" t="n">
         <v>-10</v>
@@ -24477,7 +24477,7 @@
         <v>-16.91722554537699</v>
       </c>
       <c r="C633" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D633" t="n">
         <v>-10</v>
@@ -24515,7 +24515,7 @@
         <v>-15.53035142808471</v>
       </c>
       <c r="C634" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D634" t="n">
         <v>-10</v>
@@ -24553,7 +24553,7 @@
         <v>-14.13012238740017</v>
       </c>
       <c r="C635" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D635" t="n">
         <v>-10</v>
@@ -24591,7 +24591,7 @@
         <v>-12.71774251401325</v>
       </c>
       <c r="C636" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D636" t="n">
         <v>-10</v>
@@ -24629,7 +24629,7 @@
         <v>-11.29442634740829</v>
       </c>
       <c r="C637" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D637" t="n">
         <v>-10</v>
@@ -24667,7 +24667,7 @@
         <v>-9.861397831451029</v>
       </c>
       <c r="C638" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D638" t="n">
         <v>-10</v>
@@ -24705,7 +24705,7 @@
         <v>-8.41988926189109</v>
       </c>
       <c r="C639" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D639" t="n">
         <v>-10</v>
@@ -24743,7 +24743,7 @@
         <v>-6.97114022667983</v>
       </c>
       <c r="C640" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D640" t="n">
         <v>-10</v>
@@ -24781,7 +24781,7 @@
         <v>-5.516396540020176</v>
       </c>
       <c r="C641" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D641" t="n">
         <v>-10</v>
@@ -24819,7 +24819,7 @@
         <v>-4.056909171059572</v>
       </c>
       <c r="C642" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D642" t="n">
         <v>-10</v>
@@ -24857,7 +24857,7 @@
         <v>-2.593933168152874</v>
       </c>
       <c r="C643" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D643" t="n">
         <v>-10</v>
@@ -24895,7 +24895,7 @@
         <v>-1.12872657961462</v>
       </c>
       <c r="C644" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D644" t="n">
         <v>-10</v>
@@ -24933,7 +24933,7 @@
         <v>0.3374506281056142</v>
       </c>
       <c r="C645" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D645" t="n">
         <v>-10</v>
@@ -24971,7 +24971,7 @@
         <v>1.803337653900141</v>
       </c>
       <c r="C646" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D646" t="n">
         <v>-10</v>
@@ -25009,7 +25009,7 @@
         <v>3.267673946194991</v>
       </c>
       <c r="C647" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D647" t="n">
         <v>-10</v>
@@ -25047,7 +25047,7 @@
         <v>4.729200286930009</v>
       </c>
       <c r="C648" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D648" t="n">
         <v>-10</v>
@@ -25085,7 +25085,7 @@
         <v>6.186659874389378</v>
       </c>
       <c r="C649" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D649" t="n">
         <v>-10</v>
@@ -25123,7 +25123,7 @@
         <v>7.638799403957121</v>
       </c>
       <c r="C650" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D650" t="n">
         <v>-10</v>
@@ -25161,7 +25161,7 @@
         <v>9.084370145862518</v>
       </c>
       <c r="C651" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D651" t="n">
         <v>-10</v>
@@ -25199,7 +25199,7 @@
         <v>10.52212901899434</v>
       </c>
       <c r="C652" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D652" t="n">
         <v>-10</v>
@@ -25237,7 +25237,7 @@
         <v>11.95083965985484</v>
       </c>
       <c r="C653" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D653" t="n">
         <v>-10</v>
@@ -25275,7 +25275,7 @@
         <v>13.36927348573991</v>
       </c>
       <c r="C654" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D654" t="n">
         <v>-10</v>
@@ -25313,7 +25313,7 @@
         <v>14.77621075122556</v>
       </c>
       <c r="C655" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D655" t="n">
         <v>-10</v>
@@ -25351,7 +25351,7 @@
         <v>16.1704415970578</v>
       </c>
       <c r="C656" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D656" t="n">
         <v>-10</v>
@@ -25389,7 +25389,7 @@
         <v>17.55076709053835</v>
       </c>
       <c r="C657" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D657" t="n">
         <v>-10</v>
@@ -25427,7 +25427,7 @@
         <v>18.91600025651715</v>
       </c>
       <c r="C658" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D658" t="n">
         <v>-10</v>
@@ -25465,7 +25465,7 @@
         <v>20.26496709809955</v>
       </c>
       <c r="C659" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D659" t="n">
         <v>-10</v>
@@ -25503,7 +25503,7 @@
         <v>21.59650760619566</v>
       </c>
       <c r="C660" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D660" t="n">
         <v>-10</v>
@@ -25541,7 +25541,7 @@
         <v>22.90947675703963</v>
       </c>
       <c r="C661" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D661" t="n">
         <v>-10</v>
@@ -25579,7 +25579,7 @@
         <v>24.20274549682287</v>
       </c>
       <c r="C662" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D662" t="n">
         <v>-10</v>
@@ -25617,7 +25617,7 @@
         <v>25.47520171259495</v>
       </c>
       <c r="C663" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D663" t="n">
         <v>-10</v>
@@ -25655,7 +25655,7 @@
         <v>26.72575118859661</v>
       </c>
       <c r="C664" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D664" t="n">
         <v>-10</v>
@@ -25693,7 +25693,7 @@
         <v>27.95331854720194</v>
       </c>
       <c r="C665" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D665" t="n">
         <v>-10</v>
@@ -25731,7 +25731,7 @@
         <v>29.15684817366124</v>
       </c>
       <c r="C666" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D666" t="n">
         <v>-10</v>
@@ -25769,7 +25769,7 @@
         <v>30.33530512384988</v>
       </c>
       <c r="C667" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D667" t="n">
         <v>-10</v>
@@ -25807,7 +25807,7 @@
         <v>31.48767601424194</v>
       </c>
       <c r="C668" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D668" t="n">
         <v>-10</v>
@@ -25845,7 +25845,7 @@
         <v>32.61296989334287</v>
       </c>
       <c r="C669" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D669" t="n">
         <v>-10</v>
@@ -25883,7 +25883,7 @@
         <v>33.71021909383224</v>
       </c>
       <c r="C670" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D670" t="n">
         <v>-10</v>
@@ -25921,7 +25921,7 @@
         <v>34.77848006468453</v>
       </c>
       <c r="C671" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D671" t="n">
         <v>-10</v>
@@ -25959,7 +25959,7 @@
         <v>35.81683418255157</v>
       </c>
       <c r="C672" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D672" t="n">
         <v>-10</v>
@@ -25997,7 +25997,7 @@
         <v>36.82438854170871</v>
       </c>
       <c r="C673" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D673" t="n">
         <v>-10</v>
@@ -26035,7 +26035,7 @@
         <v>37.80027672188561</v>
       </c>
       <c r="C674" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D674" t="n">
         <v>-10</v>
@@ -26073,7 +26073,7 @@
         <v>38.7436595333223</v>
       </c>
       <c r="C675" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D675" t="n">
         <v>-10</v>
@@ -26111,7 +26111,7 @@
         <v>39.6537257384088</v>
       </c>
       <c r="C676" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D676" t="n">
         <v>-10</v>
@@ -26149,7 +26149,7 @@
         <v>40.52969274928766</v>
       </c>
       <c r="C677" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D677" t="n">
         <v>-10</v>
@@ -26187,7 +26187,7 @@
         <v>41.37080730081995</v>
       </c>
       <c r="C678" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D678" t="n">
         <v>-10</v>
@@ -26225,7 +26225,7 @@
         <v>42.17634609833629</v>
       </c>
       <c r="C679" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D679" t="n">
         <v>-10</v>
@@ -26263,7 +26263,7 @@
         <v>42.94561643961557</v>
       </c>
       <c r="C680" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D680" t="n">
         <v>-10</v>
@@ -26301,7 +26301,7 @@
         <v>43.67795681055606</v>
       </c>
       <c r="C681" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D681" t="n">
         <v>-10</v>
@@ -26339,7 +26339,7 @@
         <v>44.37273745402717</v>
       </c>
       <c r="C682" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D682" t="n">
         <v>-10</v>
@@ -26377,7 +26377,7 @@
         <v>45.02936091141294</v>
       </c>
       <c r="C683" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D683" t="n">
         <v>-10</v>
@@ -26415,7 +26415,7 @@
         <v>45.64726253638131</v>
       </c>
       <c r="C684" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D684" t="n">
         <v>-10</v>
@@ -26453,7 +26453,7 @@
         <v>46.22591098043686</v>
       </c>
       <c r="C685" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D685" t="n">
         <v>-10</v>
@@ -26491,7 +26491,7 @@
         <v>46.76480864984012</v>
       </c>
       <c r="C686" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D686" t="n">
         <v>-10</v>
@@ -26529,7 +26529,7 @@
         <v>47.2634921335005</v>
       </c>
       <c r="C687" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D687" t="n">
         <v>-10</v>
@@ -26567,7 +26567,7 @@
         <v>47.72153260147485</v>
       </c>
       <c r="C688" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D688" t="n">
         <v>-10</v>
@@ -26605,7 +26605,7 @@
         <v>48.13853617372843</v>
       </c>
       <c r="C689" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D689" t="n">
         <v>-10</v>
@@ -26643,7 +26643,7 @@
         <v>48.51414425884185</v>
       </c>
       <c r="C690" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D690" t="n">
         <v>-10</v>
@@ -26681,7 +26681,7 @@
         <v>48.84803386237249</v>
       </c>
       <c r="C691" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D691" t="n">
         <v>-10</v>
@@ -26719,7 +26719,7 @@
         <v>49.13991786460535</v>
       </c>
       <c r="C692" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D692" t="n">
         <v>-10</v>
@@ -26757,7 +26757,7 @@
         <v>49.38954526745408</v>
       </c>
       <c r="C693" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D693" t="n">
         <v>-10</v>
@@ -26795,7 +26795,7 @@
         <v>49.59670141030023</v>
       </c>
       <c r="C694" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D694" t="n">
         <v>-10</v>
@@ -26833,7 +26833,7 @@
         <v>49.76120815458518</v>
       </c>
       <c r="C695" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D695" t="n">
         <v>-10</v>
@@ -26871,7 +26871,7 @@
         <v>49.8829240369958</v>
       </c>
       <c r="C696" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D696" t="n">
         <v>-10</v>
@@ -26909,7 +26909,7 @@
         <v>49.9617443911121</v>
       </c>
       <c r="C697" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D697" t="n">
         <v>-10</v>
@@ -26947,7 +26947,7 @@
         <v>49.99760143741241</v>
       </c>
       <c r="C698" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D698" t="n">
         <v>-10</v>
@@ -26985,7 +26985,7 @@
         <v>49.99046434155866</v>
       </c>
       <c r="C699" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D699" t="n">
         <v>-10</v>
@@ -27023,7 +27023,7 @@
         <v>49.94033924091155</v>
       </c>
       <c r="C700" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D700" t="n">
         <v>-10</v>
@@ -27061,7 +27061,7 @@
         <v>49.84726923925284</v>
       </c>
       <c r="C701" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D701" t="n">
         <v>-10</v>
@@ -27099,7 +27099,7 @@
         <v>49.71133436971947</v>
       </c>
       <c r="C702" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D702" t="n">
         <v>-10</v>
@@ -27137,7 +27137,7 @@
         <v>49.53265152598109</v>
       </c>
       <c r="C703" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D703" t="n">
         <v>-10</v>
@@ -27175,7 +27175,7 @@
         <v>49.31137436172033</v>
       </c>
       <c r="C704" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D704" t="n">
         <v>-10</v>
@@ -27213,7 +27213,7 @@
         <v>49.04769315850231</v>
       </c>
       <c r="C705" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D705" t="n">
         <v>-10</v>
@@ -27251,7 +27251,7 @@
         <v>48.74183466214699</v>
       </c>
       <c r="C706" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D706" t="n">
         <v>-10</v>
@@ -27289,7 +27289,7 @@
         <v>48.39406188774506</v>
       </c>
       <c r="C707" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D707" t="n">
         <v>-10</v>
@@ -27327,7 +27327,7 @@
         <v>48.00467389348467</v>
       </c>
       <c r="C708" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D708" t="n">
         <v>-10</v>
@@ -27365,7 +27365,7 @@
         <v>47.57400552348427</v>
       </c>
       <c r="C709" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D709" t="n">
         <v>-10</v>
@@ -27403,7 +27403,7 @@
         <v>47.10242711985193</v>
       </c>
       <c r="C710" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D710" t="n">
         <v>-10</v>
@@ -27441,7 +27441,7 @@
         <v>46.59034420421972</v>
       </c>
       <c r="C711" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D711" t="n">
         <v>-10</v>
@@ -27479,7 +27479,7 @@
         <v>46.03819712902516</v>
       </c>
       <c r="C712" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D712" t="n">
         <v>-10</v>
@@ -27517,7 +27517,7 @@
         <v>45.44646069884206</v>
       </c>
       <c r="C713" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D713" t="n">
         <v>-10</v>
@@ -27555,7 +27555,7 @@
         <v>44.81564376208428</v>
       </c>
       <c r="C714" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D714" t="n">
         <v>-10</v>
@@ -27593,7 +27593,7 @@
         <v>44.1462887734354</v>
       </c>
       <c r="C715" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D715" t="n">
         <v>-10</v>
@@ -27631,7 +27631,7 @@
         <v>43.43897132737794</v>
       </c>
       <c r="C716" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D716" t="n">
         <v>-10</v>
@@ -27669,7 +27669,7 @@
         <v>42.69429966322637</v>
       </c>
       <c r="C717" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D717" t="n">
         <v>-10</v>
@@ -27707,7 +27707,7 @@
         <v>41.91291414208715</v>
       </c>
       <c r="C718" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D718" t="n">
         <v>-10</v>
@@ -27745,7 +27745,7 @@
         <v>41.09548669619756</v>
       </c>
       <c r="C719" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D719" t="n">
         <v>-10</v>
@@ -27783,7 +27783,7 @@
         <v>40.24272025111381</v>
       </c>
       <c r="C720" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D720" t="n">
         <v>-10</v>
@@ -27821,7 +27821,7 @@
         <v>39.35534812124919</v>
       </c>
       <c r="C721" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D721" t="n">
         <v>-10</v>
@@ -27859,7 +27859,7 @@
         <v>38.43413337927893</v>
       </c>
       <c r="C722" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D722" t="n">
         <v>-10</v>
@@ -27897,7 +27897,7 @@
         <v>37.47986819995651</v>
       </c>
       <c r="C723" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D723" t="n">
         <v>-10</v>
@@ -27935,7 +27935,7 @@
         <v>36.49337317890214</v>
       </c>
       <c r="C724" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D724" t="n">
         <v>-10</v>
@@ -27973,7 +27973,7 @@
         <v>35.47549662695376</v>
       </c>
       <c r="C725" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D725" t="n">
         <v>-10</v>
@@ -28011,7 +28011,7 @@
         <v>34.42711384068357</v>
       </c>
       <c r="C726" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D726" t="n">
         <v>-10</v>
@@ -28049,7 +28049,7 @@
         <v>33.34912634971049</v>
       </c>
       <c r="C727" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D727" t="n">
         <v>-10</v>
@@ -28087,7 +28087,7 @@
         <v>32.24246114145154</v>
       </c>
       <c r="C728" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D728" t="n">
         <v>-10</v>
@@ -28125,7 +28125,7 @@
         <v>31.10806986398411</v>
       </c>
       <c r="C729" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D729" t="n">
         <v>-10</v>
@@ -28163,7 +28163,7 @@
         <v>29.94692800770022</v>
       </c>
       <c r="C730" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D730" t="n">
         <v>-10</v>
@@ -28201,7 +28201,7 @@
         <v>28.76003406646006</v>
       </c>
       <c r="C731" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D731" t="n">
         <v>-10</v>
@@ -28239,7 +28239,7 @@
         <v>27.54840867896128</v>
       </c>
       <c r="C732" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D732" t="n">
         <v>-10</v>
@@ -28277,7 +28277,7 @@
         <v>26.31309375106837</v>
       </c>
       <c r="C733" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D733" t="n">
         <v>-10</v>
@@ -28315,7 +28315,7 @@
         <v>25.05515155985208</v>
       </c>
       <c r="C734" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D734" t="n">
         <v>-10</v>
@@ -28353,7 +28353,7 @@
         <v>23.775663840113</v>
       </c>
       <c r="C735" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D735" t="n">
         <v>-10</v>
@@ -28391,7 +28391,7 @@
         <v>22.47573085416992</v>
       </c>
       <c r="C736" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D736" t="n">
         <v>-10</v>
@@ -28429,7 +28429,7 @@
         <v>21.15647044571899</v>
       </c>
       <c r="C737" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D737" t="n">
         <v>-10</v>
@@ -28467,7 +28467,7 @@
         <v>19.8190170785723</v>
       </c>
       <c r="C738" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D738" t="n">
         <v>-10</v>
@@ -28505,7 +28505,7 @@
         <v>18.46452086110647</v>
       </c>
       <c r="C739" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D739" t="n">
         <v>-10</v>
@@ -28543,7 +28543,7 @@
         <v>17.09414655725478</v>
       </c>
       <c r="C740" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D740" t="n">
         <v>-10</v>
@@ -28581,7 +28581,7 @@
         <v>15.7090725848999</v>
       </c>
       <c r="C741" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D741" t="n">
         <v>-10</v>
@@ -28619,7 +28619,7 @@
         <v>14.31049000252327</v>
       </c>
       <c r="C742" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D742" t="n">
         <v>-10</v>
@@ -28657,7 +28657,7 @@
         <v>12.89960148498661</v>
       </c>
       <c r="C743" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D743" t="n">
         <v>-10</v>
@@ -28695,7 +28695,7 @@
         <v>11.47762028932077</v>
       </c>
       <c r="C744" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D744" t="n">
         <v>-10</v>
@@ -28733,7 +28733,7 @@
         <v>10.04576921141813</v>
       </c>
       <c r="C745" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D745" t="n">
         <v>-10</v>
@@ -28771,7 +28771,7 @@
         <v>8.605279534520291</v>
       </c>
       <c r="C746" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D746" t="n">
         <v>-10</v>
@@ -28809,7 +28809,7 @@
         <v>7.157389970409292</v>
       </c>
       <c r="C747" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D747" t="n">
         <v>-10</v>
@@ -28847,7 +28847,7 @@
         <v>5.703345594207457</v>
       </c>
       <c r="C748" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D748" t="n">
         <v>-10</v>
@@ -28885,7 +28885,7 @@
         <v>4.244396773708668</v>
       </c>
       <c r="C749" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D749" t="n">
         <v>-10</v>
@@ -28923,7 +28923,7 @@
         <v>2.781798094156275</v>
       </c>
       <c r="C750" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D750" t="n">
         <v>-10</v>
@@ -28961,7 +28961,7 @@
         <v>1.316807279396435</v>
       </c>
       <c r="C751" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D751" t="n">
         <v>-10</v>
@@ -28999,7 +28999,7 @@
         <v>-0.1493158896710556</v>
       </c>
       <c r="C752" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D752" t="n">
         <v>-10</v>
@@ -29037,7 +29037,7 @@
         <v>-1.615310658407294</v>
       </c>
       <c r="C753" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D753" t="n">
         <v>-10</v>
@@ -29075,7 +29075,7 @@
         <v>-3.079916382588271</v>
       </c>
       <c r="C754" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D754" t="n">
         <v>-10</v>
@@ -29113,7 +29113,7 @@
         <v>-4.541873612461793</v>
       </c>
       <c r="C755" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D755" t="n">
         <v>-10</v>
@@ -29151,7 +29151,7 @@
         <v>-5.999925175780803</v>
       </c>
       <c r="C756" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D756" t="n">
         <v>-10</v>
@@ -29189,7 +29189,7 @@
         <v>-7.452817258874663</v>
       </c>
       <c r="C757" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D757" t="n">
         <v>-10</v>
@@ -29227,7 +29227,7 @@
         <v>-8.899300484834447</v>
       </c>
       <c r="C758" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D758" t="n">
         <v>-10</v>
@@ -29265,7 +29265,7 @@
         <v>-10.33813098788085</v>
       </c>
       <c r="C759" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D759" t="n">
         <v>-10</v>
@@ -29303,7 +29303,7 @@
         <v>-11.76807148299644</v>
       </c>
       <c r="C760" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D760" t="n">
         <v>-10</v>
@@ -29341,7 +29341,7 @@
         <v>-13.18789232989545</v>
       </c>
       <c r="C761" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D761" t="n">
         <v>-10</v>
@@ -29379,7 +29379,7 @@
         <v>-14.59637259042181</v>
       </c>
       <c r="C762" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D762" t="n">
         <v>-10</v>
@@ -29417,7 +29417,7 @@
         <v>-15.99230107846185</v>
       </c>
       <c r="C763" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D763" t="n">
         <v>-10</v>
@@ -29455,7 +29455,7 @@
         <v>-17.37447740147457</v>
       </c>
       <c r="C764" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D764" t="n">
         <v>-10</v>
@@ -29493,7 +29493,7 @@
         <v>-18.74171299273666</v>
       </c>
       <c r="C765" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D765" t="n">
         <v>-10</v>
@@ -29531,7 +29531,7 @@
         <v>-20.09283213342036</v>
       </c>
       <c r="C766" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D766" t="n">
         <v>-10</v>
@@ -29569,7 +29569,7 @@
         <v>-21.4266729636211</v>
       </c>
       <c r="C767" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D767" t="n">
         <v>-10</v>
@@ -29607,7 +29607,7 @@
         <v>-22.74208848147082</v>
       </c>
       <c r="C768" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D768" t="n">
         <v>-10</v>
@@ -29645,7 +29645,7 @@
         <v>-24.03794752947115</v>
       </c>
       <c r="C769" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D769" t="n">
         <v>-10</v>
@@ -29683,7 +29683,7 @@
         <v>-25.31313576720366</v>
       </c>
       <c r="C770" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D770" t="n">
         <v>-10</v>
@@ -29721,7 +29721,7 @@
         <v>-26.56655662957682</v>
       </c>
       <c r="C771" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D771" t="n">
         <v>-10</v>
@@ -29759,7 +29759,7 @@
         <v>-27.79713226979056</v>
       </c>
       <c r="C772" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D772" t="n">
         <v>-10</v>
@@ -29797,7 +29797,7 @@
         <v>-29.00380448620148</v>
       </c>
       <c r="C773" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D773" t="n">
         <v>-10</v>
@@ -29835,7 +29835,7 @@
         <v>-30.18553563229656</v>
       </c>
       <c r="C774" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D774" t="n">
         <v>-10</v>
@@ -29873,7 +29873,7 @@
         <v>-31.34130950898922</v>
       </c>
       <c r="C775" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D775" t="n">
         <v>-10</v>
@@ -29911,7 +29911,7 @@
         <v>-32.47013223847512</v>
       </c>
       <c r="C776" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D776" t="n">
         <v>-10</v>
@@ -29949,7 +29949,7 @@
         <v>-33.57103311889054</v>
       </c>
       <c r="C777" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D777" t="n">
         <v>-10</v>
@@ -29987,7 +29987,7 @@
         <v>-34.64306545904276</v>
       </c>
       <c r="C778" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D778" t="n">
         <v>-10</v>
@@ -30025,7 +30025,7 @@
         <v>-35.68530739249164</v>
       </c>
       <c r="C779" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D779" t="n">
         <v>-10</v>
@@ -30063,7 +30063,7 @@
         <v>-36.69686267028636</v>
       </c>
       <c r="C780" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D780" t="n">
         <v>-10</v>
@@ -30101,7 +30101,7 @@
         <v>-37.6768614316704</v>
       </c>
       <c r="C781" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D781" t="n">
         <v>-10</v>
@@ -30139,7 +30139,7 @@
         <v>-38.62446095209629</v>
       </c>
       <c r="C782" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D782" t="n">
         <v>-10</v>
@@ -30177,7 +30177,7 @@
         <v>-39.53884636790379</v>
       </c>
       <c r="C783" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D783" t="n">
         <v>-10</v>
@@ -30215,7 +30215,7 @@
         <v>-40.41923137704224</v>
       </c>
       <c r="C784" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D784" t="n">
         <v>-10</v>
@@ -30253,7 +30253,7 @@
         <v>-41.26485891522967</v>
       </c>
       <c r="C785" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D785" t="n">
         <v>-10</v>
@@ -30291,7 +30291,7 @@
         <v>-42.07500180697099</v>
       </c>
       <c r="C786" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D786" t="n">
         <v>-10</v>
@@ -30329,7 +30329,7 @@
         <v>-42.84896339087307</v>
       </c>
       <c r="C787" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D787" t="n">
         <v>-10</v>
@@ -30367,7 +30367,7 @@
         <v>-43.58607811872172</v>
       </c>
       <c r="C788" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D788" t="n">
         <v>-10</v>
@@ -30405,7 +30405,7 @@
         <v>-44.28571212780188</v>
       </c>
       <c r="C789" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D789" t="n">
         <v>-10</v>
@@ -30443,7 +30443,7 @@
         <v>-44.94726378597183</v>
       </c>
       <c r="C790" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D790" t="n">
         <v>-10</v>
@@ -30481,7 +30481,7 @@
         <v>-45.57016420902048</v>
       </c>
       <c r="C791" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D791" t="n">
         <v>-10</v>
@@ -30519,7 +30519,7 @@
         <v>-46.15387774986561</v>
       </c>
       <c r="C792" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D792" t="n">
         <v>-10</v>
@@ -30557,7 +30557,7 @@
         <v>-46.69790245916903</v>
       </c>
       <c r="C793" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D793" t="n">
         <v>-10</v>
@@ -30595,7 +30595,7 @@
         <v>-47.20177051697521</v>
       </c>
       <c r="C794" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D794" t="n">
         <v>-10</v>
@@ -30633,7 +30633,7 @@
         <v>-47.66504863500045</v>
       </c>
       <c r="C795" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D795" t="n">
         <v>-10</v>
@@ -30671,7 +30671,7 @@
         <v>-48.08733842922862</v>
       </c>
       <c r="C796" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D796" t="n">
         <v>-10</v>
@@ -30709,7 +30709,7 @@
         <v>-48.46827676249071</v>
       </c>
       <c r="C797" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D797" t="n">
         <v>-10</v>
@@ -30747,7 +30747,7 @@
         <v>-48.80753605673543</v>
       </c>
       <c r="C798" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D798" t="n">
         <v>-10</v>
@@ -30785,7 +30785,7 @@
         <v>-49.10482457472113</v>
       </c>
       <c r="C799" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D799" t="n">
         <v>-10</v>
@@ -30823,7 +30823,7 @@
         <v>-49.35988667088821</v>
       </c>
       <c r="C800" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D800" t="n">
         <v>-10</v>
@@ -30861,7 +30861,7 @@
         <v>-49.57250301119452</v>
       </c>
       <c r="C801" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D801" t="n">
         <v>-10</v>
@@ -30899,7 +30899,7 @@
         <v>-49.74249076172614</v>
       </c>
       <c r="C802" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D802" t="n">
         <v>-10</v>
@@ -30937,7 +30937,7 @@
         <v>-49.86970374592049</v>
       </c>
       <c r="C803" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D803" t="n">
         <v>-10</v>
@@ -30975,7 +30975,7 @@
         <v>-49.95403257026736</v>
       </c>
       <c r="C804" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D804" t="n">
         <v>-10</v>
@@ -31013,7 +31013,7 @@
         <v>-49.99540471837881</v>
       </c>
       <c r="C805" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D805" t="n">
         <v>-10</v>
@@ -31051,7 +31051,7 @@
         <v>-49.99378461334781</v>
       </c>
       <c r="C806" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D806" t="n">
         <v>-10</v>
@@ -31089,7 +31089,7 @@
         <v>-49.94917364834173</v>
       </c>
       <c r="C807" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D807" t="n">
         <v>-10</v>
@@ -31127,7 +31127,7 @@
         <v>-49.86161018540427</v>
       </c>
       <c r="C808" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D808" t="n">
         <v>-10</v>
@@ -31165,7 +31165,7 @@
         <v>-49.73116952246702</v>
       </c>
       <c r="C809" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D809" t="n">
         <v>-10</v>
@@ -31203,7 +31203,7 @@
         <v>-49.55796382859892</v>
       </c>
       <c r="C810" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D810" t="n">
         <v>-10</v>
@@ -31241,7 +31241,7 @@
         <v>-49.34214204754957</v>
       </c>
       <c r="C811" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D811" t="n">
         <v>-10</v>
@@ -31279,7 +31279,7 @@
         <v>-49.08388976966861</v>
       </c>
       <c r="C812" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D812" t="n">
         <v>-10</v>
@@ -31317,7 +31317,7 @@
         <v>-48.78342907231231</v>
       </c>
       <c r="C813" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D813" t="n">
         <v>-10</v>
@@ -31355,7 +31355,7 @@
         <v>-48.44101832887374</v>
       </c>
       <c r="C814" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D814" t="n">
         <v>-10</v>
@@ -31393,7 +31393,7 @@
         <v>-48.05695198660166</v>
       </c>
       <c r="C815" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D815" t="n">
         <v>-10</v>
@@ -31431,7 +31431,7 @@
         <v>-47.63156031339766</v>
       </c>
       <c r="C816" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D816" t="n">
         <v>-10</v>
@@ -31469,7 +31469,7 @@
         <v>-47.16520911381124</v>
       </c>
       <c r="C817" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D817" t="n">
         <v>-10</v>
@@ -31507,7 +31507,7 @@
         <v>-46.65829941447539</v>
       </c>
       <c r="C818" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D818" t="n">
         <v>-10</v>
@@ -31545,7 +31545,7 @@
         <v>-46.11126711925465</v>
       </c>
       <c r="C819" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D819" t="n">
         <v>-10</v>
@@ -31583,7 +31583,7 @@
         <v>-45.52458263440016</v>
       </c>
       <c r="C820" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D820" t="n">
         <v>-10</v>
@@ -31621,7 +31621,7 @@
         <v>-44.89875046403645</v>
       </c>
       <c r="C821" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D821" t="n">
         <v>-10</v>
@@ -31659,7 +31659,7 @@
         <v>-44.23430877632588</v>
       </c>
       <c r="C822" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D822" t="n">
         <v>-10</v>
@@ -31697,7 +31697,7 @@
         <v>-43.53182894068557</v>
       </c>
       <c r="C823" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D823" t="n">
         <v>-10</v>
@@ -31735,7 +31735,7 @@
         <v>-42.7919150364521</v>
       </c>
       <c r="C824" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D824" t="n">
         <v>-10</v>
@@ -31773,7 +31773,7 @@
         <v>-42.01520333341973</v>
       </c>
       <c r="C825" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D825" t="n">
         <v>-10</v>
@@ -31811,7 +31811,7 @@
         <v>-41.20236174469633</v>
       </c>
       <c r="C826" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D826" t="n">
         <v>-10</v>
@@ -31849,7 +31849,7 @@
         <v>-40.35408925234965</v>
       </c>
       <c r="C827" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D827" t="n">
         <v>-10</v>
@@ -31887,7 +31887,7 @@
         <v>-39.47111530633453</v>
       </c>
       <c r="C828" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D828" t="n">
         <v>-10</v>
@@ -31925,7 +31925,7 @@
         <v>-38.55419919722217</v>
       </c>
       <c r="C829" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D829" t="n">
         <v>-10</v>
@@ -31963,7 +31963,7 @@
         <v>-37.60412940326738</v>
       </c>
       <c r="C830" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D830" t="n">
         <v>-10</v>
@@ -32001,7 +32001,7 @@
         <v>-36.62172291237811</v>
       </c>
       <c r="C831" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D831" t="n">
         <v>-10</v>
@@ -32039,7 +32039,7 @@
         <v>-35.60782451956646</v>
       </c>
       <c r="C832" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D832" t="n">
         <v>-10</v>
@@ -32077,7 +32077,7 @@
         <v>-34.56330610049</v>
       </c>
       <c r="C833" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D833" t="n">
         <v>-10</v>
@@ -32115,7 +32115,7 @@
         <v>-33.48906586170442</v>
       </c>
       <c r="C834" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D834" t="n">
         <v>-10</v>
@@ -32153,7 +32153,7 @@
         <v>-32.38602756827492</v>
       </c>
       <c r="C835" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D835" t="n">
         <v>-10</v>
@@ -32191,7 +32191,7 @@
         <v>-31.25513974940744</v>
       </c>
       <c r="C836" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D836" t="n">
         <v>-10</v>
@@ -32229,7 +32229,7 @@
         <v>-30.09737488278559</v>
       </c>
       <c r="C837" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D837" t="n">
         <v>-10</v>
@@ -32267,7 +32267,7 @@
         <v>-28.91372855831445</v>
       </c>
       <c r="C838" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D838" t="n">
         <v>-10</v>
@@ -32305,7 +32305,7 @@
         <v>-27.70521862198777</v>
       </c>
       <c r="C839" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D839" t="n">
         <v>-10</v>
@@ -32343,7 +32343,7 @@
         <v>-26.47288430061881</v>
       </c>
       <c r="C840" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D840" t="n">
         <v>-10</v>
@@ -32381,7 +32381,7 @@
         <v>-25.21778530818295</v>
       </c>
       <c r="C841" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D841" t="n">
         <v>-10</v>
@@ -32419,7 +32419,7 @@
         <v>-23.94100093454535</v>
       </c>
       <c r="C842" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D842" t="n">
         <v>-10</v>
@@ -32457,7 +32457,7 @@
         <v>-22.64362911735235</v>
       </c>
       <c r="C843" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D843" t="n">
         <v>-10</v>
@@ -32495,7 +32495,7 @@
         <v>-21.32678549788967</v>
       </c>
       <c r="C844" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D844" t="n">
         <v>-10</v>
@@ -32533,7 +32533,7 @@
         <v>-19.99160246171434</v>
       </c>
       <c r="C845" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D845" t="n">
         <v>-10</v>
@@ -32571,7 +32571,7 @@
         <v>-18.63922816489036</v>
       </c>
       <c r="C846" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D846" t="n">
         <v>-10</v>
@@ -32609,7 +32609,7 @@
         <v>-17.2708255466603</v>
       </c>
       <c r="C847" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D847" t="n">
         <v>-10</v>
@@ -32647,7 +32647,7 @@
         <v>-15.88757132940719</v>
       </c>
       <c r="C848" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D848" t="n">
         <v>-10</v>
@@ -32685,7 +32685,7 @@
         <v>-14.49065500676123</v>
       </c>
       <c r="C849" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D849" t="n">
         <v>-10</v>
@@ -32723,7 +32723,7 @@
         <v>-13.08127782072689</v>
       </c>
       <c r="C850" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D850" t="n">
         <v>-10</v>
@@ -32761,7 +32761,7 @@
         <v>-11.66065172870467</v>
       </c>
       <c r="C851" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D851" t="n">
         <v>-10</v>
@@ -32799,7 +32799,7 @@
         <v>-10.229998361301</v>
       </c>
       <c r="C852" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D852" t="n">
         <v>-10</v>
@@ -32837,7 +32837,7 @@
         <v>-8.790547971817366</v>
       </c>
       <c r="C853" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D853" t="n">
         <v>-10</v>
@@ -32875,7 +32875,7 @@
         <v>-7.34353837832718</v>
       </c>
       <c r="C854" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D854" t="n">
         <v>-10</v>
@@ -32913,7 +32913,7 @@
         <v>-5.890213899244819</v>
       </c>
       <c r="C855" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D855" t="n">
         <v>-10</v>
@@ -32951,7 +32951,7 @@
         <v>-4.43182428330764</v>
       </c>
       <c r="C856" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D856" t="n">
         <v>-10</v>
@@ -32989,7 +32989,7 @@
         <v>-2.969623634885518</v>
       </c>
       <c r="C857" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D857" t="n">
         <v>-10</v>
@@ -33027,7 +33027,7 @@
         <v>-1.504869335547696</v>
       </c>
       <c r="C858" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D858" t="n">
         <v>-10</v>
@@ -33065,7 +33065,7 @@
         <v>-0.03882096280865811</v>
       </c>
       <c r="C859" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D859" t="n">
         <v>-10</v>
@@ -33103,7 +33103,7 @@
         <v>1.427260793011501</v>
       </c>
       <c r="C860" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D860" t="n">
         <v>-10</v>
@@ -33141,7 +33141,7 @@
         <v>2.892115212886483</v>
       </c>
       <c r="C861" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D861" t="n">
         <v>-10</v>
@@ -33179,7 +33179,7 @@
         <v>4.35448263320503</v>
       </c>
       <c r="C862" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D862" t="n">
         <v>-10</v>
@@ -33217,7 +33217,7 @@
         <v>5.813105528987437</v>
       </c>
       <c r="C863" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D863" t="n">
         <v>-10</v>
@@ -33255,7 +33255,7 @@
         <v>7.26672959526016</v>
       </c>
       <c r="C864" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D864" t="n">
         <v>-10</v>
@@ -33293,7 +33293,7 @@
         <v>8.714104825664307</v>
       </c>
       <c r="C865" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D865" t="n">
         <v>-10</v>
@@ -33331,7 +33331,7 @@
         <v>10.1539865873648</v>
       </c>
       <c r="C866" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D866" t="n">
         <v>-10</v>
@@ -33369,7 +33369,7 @@
         <v>11.58513669134157</v>
       </c>
       <c r="C867" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D867" t="n">
         <v>-10</v>
@@ -33407,7 +33407,7 @@
         <v>13.00632445713669</v>
       </c>
       <c r="C868" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D868" t="n">
         <v>-10</v>
@@ -33445,7 +33445,7 @@
         <v>14.4163277711476</v>
       </c>
       <c r="C869" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D869" t="n">
         <v>-10</v>
@@ -33483,7 +33483,7 @@
         <v>15.81393413755059</v>
       </c>
       <c r="C870" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D870" t="n">
         <v>-10</v>
@@ -33521,7 +33521,7 @@
         <v>17.19794172095661</v>
       </c>
       <c r="C871" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D871" t="n">
         <v>-10</v>
@@ -33559,7 +33559,7 @@
         <v>18.56716037989709</v>
       </c>
       <c r="C872" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D872" t="n">
         <v>-10</v>
@@ -33597,7 +33597,7 @@
         <v>19.92041269025659</v>
       </c>
       <c r="C873" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D873" t="n">
         <v>-10</v>
@@ -33635,7 +33635,7 @@
         <v>21.25653495776688</v>
       </c>
       <c r="C874" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D874" t="n">
         <v>-10</v>
@@ -33673,7 +33673,7 @@
         <v>22.57437821869696</v>
       </c>
       <c r="C875" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D875" t="n">
         <v>-10</v>
@@ -33711,7 +33711,7 @@
         <v>23.87280922787338</v>
       </c>
       <c r="C876" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D876" t="n">
         <v>-10</v>
@@ -33749,7 +33749,7 @@
         <v>25.15071143318633</v>
       </c>
       <c r="C877" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D877" t="n">
         <v>-10</v>
@@ -33787,7 +33787,7 @@
         <v>26.40698593573848</v>
       </c>
       <c r="C878" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D878" t="n">
         <v>-10</v>
@@ -33825,7 +33825,7 @@
         <v>27.64055243481579</v>
       </c>
       <c r="C879" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D879" t="n">
         <v>-10</v>
@@ -33863,7 +33863,7 @@
         <v>28.85035015686299</v>
       </c>
       <c r="C880" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D880" t="n">
         <v>-10</v>
@@ -33901,7 +33901,7 @@
         <v>30.03533876766943</v>
       </c>
       <c r="C881" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D881" t="n">
         <v>-10</v>
@@ -33939,7 +33939,7 @@
         <v>31.19449926697643</v>
       </c>
       <c r="C882" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D882" t="n">
         <v>-10</v>
@@ -33977,7 +33977,7 @@
         <v>32.32683486474129</v>
       </c>
       <c r="C883" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D883" t="n">
         <v>-10</v>
@@ -34015,7 +34015,7 @@
         <v>33.4313718382999</v>
       </c>
       <c r="C884" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D884" t="n">
         <v>-10</v>
@@ -34053,7 +34053,7 @@
         <v>34.50716036969546</v>
       </c>
       <c r="C885" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D885" t="n">
         <v>-10</v>
@@ -34091,7 +34091,7 @@
         <v>35.55327536244874</v>
       </c>
       <c r="C886" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D886" t="n">
         <v>-10</v>
@@ -34129,7 +34129,7 @@
         <v>36.56881723707188</v>
       </c>
       <c r="C887" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D887" t="n">
         <v>-10</v>
@@ -34167,7 +34167,7 @@
         <v>37.55291270463746</v>
       </c>
       <c r="C888" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D888" t="n">
         <v>-10</v>
@@ -34205,7 +34205,7 @@
         <v>38.50471551774166</v>
       </c>
       <c r="C889" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D889" t="n">
         <v>-10</v>
@@ -34243,7 +34243,7 @@
         <v>39.42340719821183</v>
       </c>
       <c r="C890" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D890" t="n">
         <v>-10</v>
@@ -34281,7 +34281,7 @@
         <v>40.30819774093654</v>
       </c>
       <c r="C891" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D891" t="n">
         <v>-10</v>
@@ -34319,7 +34319,7 @@
         <v>41.15832629320912</v>
       </c>
       <c r="C892" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D892" t="n">
         <v>-10</v>
@@ -34357,7 +34357,7 @@
         <v>41.97306180900407</v>
       </c>
       <c r="C893" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D893" t="n">
         <v>-10</v>
@@ -34395,7 +34395,7 @@
         <v>42.75170367762033</v>
       </c>
       <c r="C894" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D894" t="n">
         <v>-10</v>
@@ -34433,7 +34433,7 @@
         <v>43.49358232615411</v>
       </c>
       <c r="C895" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D895" t="n">
         <v>-10</v>
@@ -34471,7 +34471,7 @@
         <v>44.19805979528002</v>
       </c>
       <c r="C896" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D896" t="n">
         <v>-10</v>
@@ -34509,7 +34509,7 @@
         <v>44.86453028784832</v>
       </c>
       <c r="C897" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D897" t="n">
         <v>-10</v>
@@ -34547,7 +34547,7 @@
         <v>45.49242068982388</v>
       </c>
       <c r="C898" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D898" t="n">
         <v>-10</v>
@@ -34585,7 +34585,7 @@
         <v>46.08119106312136</v>
       </c>
       <c r="C899" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D899" t="n">
         <v>-10</v>
@@ -34623,7 +34623,7 @@
         <v>46.63033510991036</v>
       </c>
       <c r="C900" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D900" t="n">
         <v>-10</v>
@@ -34661,7 +34661,7 @@
         <v>47.13938060799369</v>
       </c>
       <c r="C901" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D901" t="n">
         <v>-10</v>
@@ -34699,7 +34699,7 @@
         <v>47.60788981688215</v>
       </c>
       <c r="C902" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D902" t="n">
         <v>-10</v>
@@ -34737,7 +34737,7 @@
         <v>48.03545985421851</v>
       </c>
       <c r="C903" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D903" t="n">
         <v>-10</v>
@@ -34775,7 +34775,7 @@
         <v>48.42172304222539</v>
       </c>
       <c r="C904" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D904" t="n">
         <v>-10</v>
@@ -34813,7 +34813,7 @@
         <v>48.76634722388062</v>
       </c>
       <c r="C905" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D905" t="n">
         <v>-10</v>
@@ -34851,7 +34851,7 @@
         <v>49.06903604854668</v>
       </c>
       <c r="C906" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D906" t="n">
         <v>-10</v>
@@ -34889,7 +34889,7 @@
         <v>49.32952922681012</v>
       </c>
       <c r="C907" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D907" t="n">
         <v>-10</v>
@@ -34927,7 +34927,7 @@
         <v>49.54760275431036</v>
       </c>
       <c r="C908" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D908" t="n">
         <v>-10</v>
@@ -34965,7 +34965,7 @@
         <v>49.72306910436676</v>
       </c>
       <c r="C909" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D909" t="n">
         <v>-10</v>
@@ -35003,7 +35003,7 @@
         <v>49.85577738923704</v>
       </c>
       <c r="C910" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D910" t="n">
         <v>-10</v>
@@ -35041,7 +35041,7 @@
         <v>49.94561348986951</v>
       </c>
       <c r="C911" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D911" t="n">
         <v>-10</v>
@@ -35079,7 +35079,7 @@
         <v>49.99250015403662</v>
       </c>
       <c r="C912" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D912" t="n">
         <v>-10</v>
@@ -35117,7 +35117,7 @@
         <v>49.99639706276617</v>
       </c>
       <c r="C913" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D913" t="n">
         <v>-10</v>
@@ -35155,7 +35155,7 @@
         <v>49.95730086501244</v>
       </c>
       <c r="C914" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D914" t="n">
         <v>-10</v>
@@ -35193,7 +35193,7 @@
         <v>49.87524518053786</v>
       </c>
       <c r="C915" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D915" t="n">
         <v>-10</v>
@@ -35231,7 +35231,7 @@
         <v>49.75030057100266</v>
       </c>
       <c r="C916" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D916" t="n">
         <v>-10</v>
@@ -35269,7 +35269,7 @@
         <v>49.58257447928705</v>
       </c>
       <c r="C917" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D917" t="n">
         <v>-10</v>
@@ -35307,7 +35307,7 @@
         <v>49.37221113709865</v>
       </c>
       <c r="C918" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D918" t="n">
         <v>-10</v>
@@ -35345,7 +35345,7 @@
         <v>49.11939144094399</v>
       </c>
       <c r="C919" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D919" t="n">
         <v>-10</v>
@@ -35383,7 +35383,7 @@
         <v>48.82433279657149</v>
       </c>
       <c r="C920" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D920" t="n">
         <v>-10</v>
@@ -35421,7 +35421,7 @@
         <v>48.48728893201872</v>
       </c>
       <c r="C921" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D921" t="n">
         <v>-10</v>
@@ -35459,7 +35459,7 @@
         <v>48.10854967942586</v>
       </c>
       <c r="C922" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D922" t="n">
         <v>-10</v>
@@ -35497,7 +35497,7 @@
         <v>47.68844072580176</v>
       </c>
       <c r="C923" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D923" t="n">
         <v>-10</v>
@@ -35535,7 +35535,7 @@
         <v>47.22732333295813</v>
       </c>
       <c r="C924" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D924" t="n">
         <v>-10</v>
@@ -35573,7 +35573,7 @@
         <v>46.72559402685146</v>
       </c>
       <c r="C925" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D925" t="n">
         <v>-10</v>
@@ -35611,7 +35611,7 @@
         <v>46.18368425660123</v>
       </c>
       <c r="C926" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D926" t="n">
         <v>-10</v>
@@ -35649,7 +35649,7 @@
         <v>45.60206002347589</v>
       </c>
       <c r="C927" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D927" t="n">
         <v>-10</v>
@@ -35687,7 +35687,7 @@
         <v>44.98122148016773</v>
       </c>
       <c r="C928" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D928" t="n">
         <v>-10</v>
@@ -35725,7 +35725,7 @@
         <v>44.32170250069893</v>
       </c>
       <c r="C929" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D929" t="n">
         <v>-10</v>
@@ -35763,7 +35763,7 @@
         <v>43.62407022133098</v>
       </c>
       <c r="C930" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D930" t="n">
         <v>-10</v>
@@ -35801,7 +35801,7 @@
         <v>42.88892455287003</v>
       </c>
       <c r="C931" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D931" t="n">
         <v>-10</v>
@@ -35839,7 +35839,7 @@
         <v>42.11689766478967</v>
       </c>
       <c r="C932" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D932" t="n">
         <v>-10</v>
@@ -35877,7 +35877,7 @@
         <v>41.30865344161256</v>
       </c>
       <c r="C933" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D933" t="n">
         <v>-10</v>
@@ -35915,7 +35915,7 @@
         <v>40.46488691202081</v>
       </c>
       <c r="C934" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D934" t="n">
         <v>-10</v>
@@ -35953,7 +35953,7 @@
         <v>39.58632365118333</v>
       </c>
       <c r="C935" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D935" t="n">
         <v>-10</v>
@@ -35991,7 +35991,7 @@
         <v>38.67371915681706</v>
       </c>
       <c r="C936" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D936" t="n">
         <v>-10</v>
@@ -36029,7 +36029,7 @@
         <v>37.72785819951542</v>
       </c>
       <c r="C937" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D937" t="n">
         <v>-10</v>
@@ -36067,7 +36067,7 @@
         <v>36.7495541479061</v>
       </c>
       <c r="C938" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D938" t="n">
         <v>-10</v>
@@ -36105,7 +36105,7 @@
         <v>35.73964826921477</v>
       </c>
       <c r="C939" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D939" t="n">
         <v>-10</v>
@@ -36143,7 +36143,7 @@
         <v>34.69900900584018</v>
       </c>
       <c r="C940" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D940" t="n">
         <v>-10</v>
@@ -36181,7 +36181,7 @@
         <v>33.62853122855856</v>
       </c>
       <c r="C941" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D941" t="n">
         <v>-10</v>
@@ -36219,7 +36219,7 @@
         <v>32.5291354670037</v>
       </c>
       <c r="C942" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D942" t="n">
         <v>-10</v>
@@ -36257,7 +36257,7 @@
         <v>31.40176711808033</v>
       </c>
       <c r="C943" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D943" t="n">
         <v>-10</v>
@@ -36295,7 +36295,7 @@
         <v>30.24739563299559</v>
       </c>
       <c r="C944" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D944" t="n">
         <v>-10</v>
@@ -36333,7 +36333,7 @@
         <v>29.06701368360347</v>
       </c>
       <c r="C945" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D945" t="n">
         <v>-10</v>
@@ -36371,7 +36371,7 @@
         <v>27.86163630878351</v>
       </c>
       <c r="C946" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D946" t="n">
         <v>-10</v>
@@ -36409,7 +36409,7 @@
         <v>26.63230004158325</v>
       </c>
       <c r="C947" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D947" t="n">
         <v>-10</v>
@@ -36447,7 +36447,7 @@
         <v>25.38006201787966</v>
       </c>
       <c r="C948" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D948" t="n">
         <v>-10</v>
@@ -36485,7 +36485,7 @@
         <v>24.10599906732134</v>
       </c>
       <c r="C949" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D949" t="n">
         <v>-10</v>
@@ -36523,7 +36523,7 @@
         <v>22.81120678733798</v>
       </c>
       <c r="C950" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D950" t="n">
         <v>-10</v>
@@ -36561,7 +36561,7 @@
         <v>21.49679860100846</v>
       </c>
       <c r="C951" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D951" t="n">
         <v>-10</v>
@@ -36599,7 +36599,7 @@
         <v>20.16390479960283</v>
       </c>
       <c r="C952" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D952" t="n">
         <v>-10</v>
@@ -36637,7 +36637,7 @@
         <v>18.81367157061629</v>
       </c>
       <c r="C953" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D953" t="n">
         <v>-10</v>
@@ -36675,7 +36675,7 @@
         <v>17.44726001213625</v>
       </c>
       <c r="C954" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D954" t="n">
         <v>-10</v>
@@ -36713,7 +36713,7 @@
         <v>16.06584513438484</v>
       </c>
       <c r="C955" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D955" t="n">
         <v>-10</v>
@@ -36751,7 +36751,7 @@
         <v>14.67061484930055</v>
       </c>
       <c r="C956" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D956" t="n">
         <v>-10</v>
@@ -36789,7 +36789,7 @@
         <v>13.26276894902286</v>
       </c>
       <c r="C957" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D957" t="n">
         <v>-10</v>
@@ -36827,7 +36827,7 @@
         <v>11.84351807416343</v>
       </c>
       <c r="C958" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D958" t="n">
         <v>-10</v>
@@ -36865,7 +36865,7 @@
         <v>10.41408267274564</v>
       </c>
       <c r="C959" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D959" t="n">
         <v>-10</v>
@@ -36903,7 +36903,7 @@
         <v>8.975691950713355</v>
       </c>
       <c r="C960" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D960" t="n">
         <v>-10</v>
@@ -36941,7 +36941,7 @@
         <v>7.529582814905727</v>
       </c>
       <c r="C961" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D961" t="n">
         <v>-10</v>
@@ -36979,7 +36979,7 @@
         <v>6.076998809412398</v>
       </c>
       <c r="C962" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D962" t="n">
         <v>-10</v>
@@ -37017,7 +37017,7 @@
         <v>4.619189046219469</v>
       </c>
       <c r="C963" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D963" t="n">
         <v>-10</v>
@@ -37055,7 +37055,7 @@
         <v>3.157407131067289</v>
       </c>
       <c r="C964" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D964" t="n">
         <v>-10</v>
@@ -37093,7 +37093,7 @@
         <v>1.69291008544663</v>
       </c>
       <c r="C965" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D965" t="n">
         <v>-10</v>
@@ -37131,7 +37131,7 @@
         <v>0.2269572656533068</v>
       </c>
       <c r="C966" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D966" t="n">
         <v>-10</v>
@@ -37169,7 +37169,7 @@
         <v>-1.2391907201614</v>
       </c>
       <c r="C967" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D967" t="n">
         <v>-10</v>
@@ -37207,7 +37207,7 @@
         <v>-2.704273096017891</v>
       </c>
       <c r="C968" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D968" t="n">
         <v>-10</v>
@@ -37245,7 +37245,7 @@
         <v>-4.167030002280246</v>
       </c>
       <c r="C969" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D969" t="n">
         <v>-10</v>
@@ -37283,7 +37283,7 @@
         <v>-5.626203579040233</v>
       </c>
       <c r="C970" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D970" t="n">
         <v>-10</v>
@@ -37321,7 +37321,7 @@
         <v>-7.080539047780825</v>
       </c>
       <c r="C971" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D971" t="n">
         <v>-10</v>
@@ -37359,7 +37359,7 @@
         <v>-8.528785790390998</v>
       </c>
       <c r="C972" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D972" t="n">
         <v>-10</v>
@@ -37397,7 +37397,7 @@
         <v>-9.969698424600988</v>
       </c>
       <c r="C973" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D973" t="n">
         <v>-10</v>
@@ -37435,7 +37435,7 @@
         <v>-11.40203787491861</v>
       </c>
       <c r="C974" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D974" t="n">
         <v>-10</v>
@@ -37473,7 +37473,7 @@
         <v>-12.82457243813889</v>
       </c>
       <c r="C975" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D975" t="n">
         <v>-10</v>
@@ -37511,7 +37511,7 @@
         <v>-14.23607884251517</v>
       </c>
       <c r="C976" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D976" t="n">
         <v>-10</v>
@@ -37549,7 +37549,7 @@
         <v>-15.63534329968032</v>
       </c>
       <c r="C977" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D977" t="n">
         <v>-10</v>
@@ -37587,7 +37587,7 @@
         <v>-17.02116254841292</v>
       </c>
       <c r="C978" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D978" t="n">
         <v>-10</v>
@@ -37625,7 +37625,7 @@
         <v>-18.39234488935004</v>
       </c>
       <c r="C979" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D979" t="n">
         <v>-10</v>
@@ -37663,7 +37663,7 @@
         <v>-19.74771120975881</v>
       </c>
       <c r="C980" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D980" t="n">
         <v>-10</v>
@@ -37701,7 +37701,7 @@
         <v>-21.08609599748248</v>
       </c>
       <c r="C981" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D981" t="n">
         <v>-10</v>
@@ -37739,7 +37739,7 @@
         <v>-22.4063483431944</v>
       </c>
       <c r="C982" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D982" t="n">
         <v>-10</v>
@@ -37777,7 +37777,7 @@
         <v>-23.70733293009156</v>
       </c>
       <c r="C983" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D983" t="n">
         <v>-10</v>
@@ -37815,7 +37815,7 @@
         <v>-24.98793101018067</v>
       </c>
       <c r="C984" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D984" t="n">
         <v>-10</v>
@@ -37853,7 +37853,7 @@
         <v>-26.24704136631685</v>
       </c>
       <c r="C985" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D985" t="n">
         <v>-10</v>
@@ -37891,7 +37891,7 @@
         <v>-27.48358125916712</v>
       </c>
       <c r="C986" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D986" t="n">
         <v>-10</v>
@@ -37929,7 +37929,7 @@
         <v>-28.69648735828353</v>
       </c>
       <c r="C987" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D987" t="n">
         <v>-10</v>
@@ -37967,7 +37967,7 @@
         <v>-29.88471665648698</v>
       </c>
       <c r="C988" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D988" t="n">
         <v>-10</v>
@@ -38005,7 +38005,7 @@
         <v>-31.04724736677373</v>
       </c>
       <c r="C989" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D989" t="n">
         <v>-10</v>
@@ -38043,7 +38043,7 @@
         <v>-32.18307980097503</v>
       </c>
       <c r="C990" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D990" t="n">
         <v>-10</v>
@@ -38081,7 +38081,7 @@
         <v>-33.29123722941342</v>
       </c>
       <c r="C991" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D991" t="n">
         <v>-10</v>
@@ -38119,7 +38119,7 @@
         <v>-34.37076672081518</v>
       </c>
       <c r="C992" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D992" t="n">
         <v>-10</v>
@@ -38157,7 +38157,7 @@
         <v>-35.42073996175996</v>
       </c>
       <c r="C993" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D993" t="n">
         <v>-10</v>
@@ -38195,7 +38195,7 @@
         <v>-36.44025405495881</v>
       </c>
       <c r="C994" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D994" t="n">
         <v>-10</v>
@@ -38233,7 +38233,7 @@
         <v>-37.42843229567821</v>
       </c>
       <c r="C995" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D995" t="n">
         <v>-10</v>
@@ -38271,7 +38271,7 @@
         <v>-38.38442492563922</v>
       </c>
       <c r="C996" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D996" t="n">
         <v>-10</v>
@@ -38309,7 +38309,7 @@
         <v>-39.30740986374482</v>
       </c>
       <c r="C997" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D997" t="n">
         <v>-10</v>
@@ -38347,7 +38347,7 @@
         <v>-40.19659341300758</v>
       </c>
       <c r="C998" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D998" t="n">
         <v>-10</v>
@@ -38385,7 +38385,7 @@
         <v>-41.05121094306908</v>
       </c>
       <c r="C999" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D999" t="n">
         <v>-10</v>
@@ -38423,7 +38423,7 @@
         <v>-41.87052754772323</v>
       </c>
       <c r="C1000" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1000" t="n">
         <v>-10</v>
@@ -38461,7 +38461,7 @@
         <v>-42.65383867688072</v>
       </c>
       <c r="C1001" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1001" t="n">
         <v>-10</v>
@@ -38499,7 +38499,7 @@
         <v>-43.4004707424277</v>
       </c>
       <c r="C1002" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1002" t="n">
         <v>-10</v>
@@ -38537,7 +38537,7 @@
         <v>-44.10978169746124</v>
       </c>
       <c r="C1003" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1003" t="n">
         <v>-10</v>
@@ -38575,7 +38575,7 @@
         <v>-44.78116158840052</v>
       </c>
       <c r="C1004" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1004" t="n">
         <v>-10</v>
@@ -38613,7 +38613,7 @@
         <v>-45.41403307950054</v>
       </c>
       <c r="C1005" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1005" t="n">
         <v>-10</v>
@@ -38651,7 +38651,7 @@
         <v>-46.00785194931717</v>
       </c>
       <c r="C1006" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1006" t="n">
         <v>-10</v>
@@ -38689,7 +38689,7 @@
         <v>-46.56210755869651</v>
       </c>
       <c r="C1007" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1007" t="n">
         <v>-10</v>
@@ -38727,7 +38727,7 @@
         <v>-47.07632328988527</v>
       </c>
       <c r="C1008" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1008" t="n">
         <v>-10</v>
@@ -38765,7 +38765,7 @@
         <v>-47.55005695638646</v>
       </c>
       <c r="C1009" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1009" t="n">
         <v>-10</v>
@@ -38803,7 +38803,7 @@
         <v>-47.98290118320565</v>
       </c>
       <c r="C1010" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1010" t="n">
         <v>-10</v>
@@ -38841,7 +38841,7 @@
         <v>-48.374483757163</v>
       </c>
       <c r="C1011" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1011" t="n">
         <v>-10</v>
@@ -38879,7 +38879,7 @@
         <v>-48.72446794696814</v>
       </c>
       <c r="C1012" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1012" t="n">
         <v>-10</v>
@@ -38917,7 +38917,7 @@
         <v>-49.03255279278343</v>
       </c>
       <c r="C1013" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1013" t="n">
         <v>-10</v>
@@ -38955,7 +38955,7 @@
         <v>-49.29847336502672</v>
       </c>
       <c r="C1014" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1014" t="n">
         <v>-10</v>
@@ -38993,7 +38993,7 @@
         <v>-49.52200099219071</v>
       </c>
       <c r="C1015" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1015" t="n">
         <v>-10</v>
@@ -39031,7 +39031,7 @@
         <v>-49.70294345748292</v>
       </c>
       <c r="C1016" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1016" t="n">
         <v>-10</v>
@@ -39069,7 +39069,7 @@
         <v>-49.84114516411772</v>
       </c>
       <c r="C1017" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1017" t="n">
         <v>-10</v>
@@ -39107,7 +39107,7 @@
         <v>-49.93648726911761</v>
       </c>
       <c r="C1018" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1018" t="n">
         <v>-10</v>
@@ -39145,7 +39145,7 @@
         <v>-49.98888778550929</v>
       </c>
       <c r="C1019" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1019" t="n">
         <v>-10</v>
@@ -39183,7 +39183,7 @@
         <v>-49.99830165282614</v>
       </c>
       <c r="C1020" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1020" t="n">
         <v>-10</v>
@@ -39221,7 +39221,7 @@
         <v>-49.96472077585681</v>
       </c>
       <c r="C1021" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1021" t="n">
         <v>-10</v>
@@ -39259,7 +39259,7 @@
         <v>-49.88817403160655</v>
       </c>
       <c r="C1022" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1022" t="n">
         <v>-10</v>
@@ -39297,7 +39297,7 @@
         <v>-49.76872724446508</v>
       </c>
       <c r="C1023" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1023" t="n">
         <v>-10</v>
@@ -39335,7 +39335,7 @@
         <v>-49.60648312960274</v>
       </c>
       <c r="C1024" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1024" t="n">
         <v>-10</v>
@@ -39373,7 +39373,7 @@
         <v>-49.40158120464309</v>
       </c>
       <c r="C1025" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D1025" t="n">
         <v>-10</v>
